--- a/ready2.xlsx
+++ b/ready2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC352"/>
+  <dimension ref="A1:AB352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,11 +571,6 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
           <t>Description</t>
         </is>
       </c>
@@ -670,10 +665,7 @@
           <t>Senior-friendly living: well-equipped retirement homes</t>
         </is>
       </c>
-      <c r="AB2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>['a city street with cars parked in front of a building ', 'a car is driving down a street with a bunch of parked cars ', 'a car is parked in front of a tree ', 'a car is stopped at a red light ', 'a car parked on the side of a road ', 'a car with a large mirror on the back of it ', 'a green vase sitting on a sidewalk next to a tree ', 'a plant sitting on a sidewalk next to a fence ', 'a plant with a leaf in it sitting on a sidewalk ', 'a pottery pot sitting on the side of a sidewalk ', 'a red fire hydrant with a red cover ', 'a red truck parked in front of a building ', 'a truck is driving down a street with a group of people ', 'a truck is parked in the street with a car behind it ', 'a truck with a camera on the back of it ', 'a white airplane is flying through the air ', 'a white truck with a black seat and a white roof ']</t>
         </is>
@@ -765,10 +757,7 @@
         </is>
       </c>
       <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -864,10 +853,7 @@
           <t>AWO sign: Against racism, for diversity and tolerance</t>
         </is>
       </c>
-      <c r="AB4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -963,10 +949,7 @@
           <t>on the one hand illness and on the other hand help</t>
         </is>
       </c>
-      <c r="AB5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>['a white bus with a black seat and a white stripe on it ', "a white bus with a red stripe on it's side ", 'a white bus with a sign on the side of it ']</t>
         </is>
@@ -1062,10 +1045,7 @@
           <t>Ambivalent but productive approach to technology "need to get used to it"</t>
         </is>
       </c>
-      <c r="AB6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -1161,10 +1141,7 @@
           <t>Classic cars increase in value with age</t>
         </is>
       </c>
-      <c r="AB7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>['a yellow car parked next to a yellow truck ', 'a car with a yellow hood and a blue seat ', 'a yellow car parked on the side of a road ']</t>
         </is>
@@ -1260,10 +1237,7 @@
           <t>old tree has value, provides shade</t>
         </is>
       </c>
-      <c r="AB8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -1355,10 +1329,7 @@
         </is>
       </c>
       <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -1450,10 +1421,7 @@
         </is>
       </c>
       <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>['a small house with trees and a building ', 'a bouquet of flowers in a vase on a table ', 'a fence with a bunch of plants in it ', 'a flower arrangement in a vase on a chair ', 'a flower pot filled with lots of flowers ', 'a garden filled with lots of flowers and plants ', 'a table with a bunch of flowers on it ']</t>
         </is>
@@ -1545,10 +1513,7 @@
         </is>
       </c>
       <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>['a man riding a bike next to a statue ', 'a bicycle parked next to a wall with a bicycle rack ', 'a bicycle with a rack of bicycles attached to it ', 'a man is walking down the street with a cell phone ', 'a pile of old bicycles sitting on top of a sidewalk ', 'a row of bicycles parked next to each other ', 'a skateboarder is doing tricks in a building ', 'a woman is sitting on a bench with a bag ']</t>
         </is>
@@ -1644,10 +1609,7 @@
           <t>Ageing as a process</t>
         </is>
       </c>
-      <c r="AB12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -1739,10 +1701,7 @@
           <t>mobile; being on the move = active</t>
         </is>
       </c>
-      <c r="AB13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -1838,10 +1797,7 @@
           <t>new learning in old age; young people are tolerant</t>
         </is>
       </c>
-      <c r="AB14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>['a train station with people walking down the tracks ', 'a blurry photo of a blurry photo of a person ', 'a man walking down a street with a skateboard ', 'a man walking down a street with a suitcase ', 'a man walking down the street carrying a suitcase ', 'a man walking down the street with a skateboard ', 'a person on a skateboard in the middle of a building ', 'a woman sitting on a bench talking on a cell phone ', 'a woman sitting on a ledge with a skateboard ', 'a woman walking down a sidewalk with a bag ', 'a woman walking down a sidewalk with her feet crossed ']</t>
         </is>
@@ -1937,10 +1893,7 @@
           <t>Renovating as Coping</t>
         </is>
       </c>
-      <c r="AB15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AB15" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -2032,10 +1985,7 @@
         </is>
       </c>
       <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AB16" t="inlineStr">
         <is>
           <t>['a table with a glass of wine and a vase of flowers ', 'a glass of water with a small amount of liquid in it ', 'a glass vase filled with water and green leaves ', 'a plant is growing in the window of a car ', 'a table with a vase of flowers and a glass of wine ', 'a vase filled with flowers sitting on a table ', 'a vase filled with water and flowers on a table ']</t>
         </is>
@@ -2127,10 +2077,7 @@
         </is>
       </c>
       <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC17" t="inlineStr">
+      <c r="AB17" t="inlineStr">
         <is>
           <t>['a person standing on a sidewalk next to a bag of luggage ', 'a man standing next to a pole holding a skateboard ', 'a person on a skateboard on a wooden bench ', 'a person with a hat on a street ', 'a suitcase is sitting on a wooden floor ', 'a suitcase on a wooden platform with a backpack ']</t>
         </is>
@@ -2222,10 +2169,7 @@
         </is>
       </c>
       <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC18" t="inlineStr">
+      <c r="AB18" t="inlineStr">
         <is>
           <t>['a dog is laying on the floor with its paws on the floor ', 'a dog is laying on a wooden floor ']</t>
         </is>
@@ -2317,10 +2261,7 @@
         </is>
       </c>
       <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC19" t="inlineStr">
+      <c r="AB19" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -2416,10 +2357,7 @@
           <t>Limited lifetime</t>
         </is>
       </c>
-      <c r="AB20" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC20" t="inlineStr">
+      <c r="AB20" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -2511,10 +2449,7 @@
         </is>
       </c>
       <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC21" t="inlineStr">
+      <c r="AB21" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -2606,10 +2541,7 @@
         </is>
       </c>
       <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC22" t="inlineStr">
+      <c r="AB22" t="inlineStr">
         <is>
           <t>['a painting of a person holding a toy ', 'a young girl in a dress and a young girl in a dress ']</t>
         </is>
@@ -2705,10 +2637,7 @@
           <t>Death &amp; dying; loneliness</t>
         </is>
       </c>
-      <c r="AB23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC23" t="inlineStr">
+      <c r="AB23" t="inlineStr">
         <is>
           <t>['a small garden with a tree and shrubbery ']</t>
         </is>
@@ -2800,10 +2729,7 @@
         </is>
       </c>
       <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC24" t="inlineStr">
+      <c r="AB24" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -2895,10 +2821,7 @@
         </is>
       </c>
       <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC25" t="inlineStr">
+      <c r="AB25" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -2990,10 +2913,7 @@
         </is>
       </c>
       <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC26" t="inlineStr">
+      <c r="AB26" t="inlineStr">
         <is>
           <t>['a street scene with a car parked on the side of the road ', 'a bike is parked in the grass ', 'a car is parked in the street with a blue sky ', 'a small group of small trees with a single leaf ']</t>
         </is>
@@ -3085,10 +3005,7 @@
         </is>
       </c>
       <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC27" t="inlineStr">
+      <c r="AB27" t="inlineStr">
         <is>
           <t>['a man with a beard is standing in front of a bush ', 'a man with a beard is standing in front of a bush ']</t>
         </is>
@@ -3180,10 +3097,7 @@
         </is>
       </c>
       <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC28" t="inlineStr">
+      <c r="AB28" t="inlineStr">
         <is>
           <t>['a person holding a hand holding a small piece of paper ', 'a person holding a hand up to a hand held object ']</t>
         </is>
@@ -3275,10 +3189,7 @@
         </is>
       </c>
       <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC29" t="inlineStr">
+      <c r="AB29" t="inlineStr">
         <is>
           <t>['a person holding a book with a pair of scissors ', 'a person holding a pair of scissors in their hand ']</t>
         </is>
@@ -3374,10 +3285,7 @@
           <t>Dealing with technology (positive, productive)</t>
         </is>
       </c>
-      <c r="AB30" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC30" t="inlineStr">
+      <c r="AB30" t="inlineStr">
         <is>
           <t>['a computer monitor sitting on top of a wooden desk ']</t>
         </is>
@@ -3469,10 +3377,7 @@
         </is>
       </c>
       <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC31" t="inlineStr">
+      <c r="AB31" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -3568,10 +3473,7 @@
           <t>"Friends/people who shaped the generation pass away"</t>
         </is>
       </c>
-      <c r="AB32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC32" t="inlineStr">
+      <c r="AB32" t="inlineStr">
         <is>
           <t>['a newspaper advertisement for a book titled "the man in the white hat" ', 'a man in a suit and tie ', 'a man in a suit and tie standing in front of a white wall ', 'a man is reading a newspaper in front of a large advertisement ']</t>
         </is>
@@ -3667,10 +3569,7 @@
           <t>Aids</t>
         </is>
       </c>
-      <c r="AB33" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC33" t="inlineStr">
+      <c r="AB33" t="inlineStr">
         <is>
           <t>['a black suitcase sitting on the ground next to a wall ', 'a black suitcase sitting on the ground ', 'a black suitcase sitting on top of a floor ']</t>
         </is>
@@ -3762,10 +3661,7 @@
         </is>
       </c>
       <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC34" t="inlineStr">
+      <c r="AB34" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -3861,10 +3757,7 @@
           <t>Further development/education</t>
         </is>
       </c>
-      <c r="AB35" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC35" t="inlineStr">
+      <c r="AB35" t="inlineStr">
         <is>
           <t>['a book with a picture of a person on it ', 'a blurry photo of a cartoon character ', 'a cat is laying on a table ', 'a man in a suit talking on a cell phone ', 'a person laying on the ground with a cellphone ', 'a woman and a man are looking at a cell phone ', 'a woman holding a glass in her hand ', 'a woman in a black shirt and a man in a white shirt ', 'a woman is holding a camera while a group of people watch ', 'a woman is talking on a cell phone ', 'a woman sitting in a row with a man ', 'a woman sitting next to a man on a cell phone ', 'a woman sitting on a chair with her hands on her hips ']</t>
         </is>
@@ -3956,10 +3849,7 @@
         </is>
       </c>
       <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC36" t="inlineStr">
+      <c r="AB36" t="inlineStr">
         <is>
           <t>['a view from a balcony of a building ']</t>
         </is>
@@ -4051,10 +3941,7 @@
         </is>
       </c>
       <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC37" t="inlineStr">
+      <c r="AB37" t="inlineStr">
         <is>
           <t>['a book is sitting on a shelf in a room ', 'a person holding a book with a picture of a person ']</t>
         </is>
@@ -4146,10 +4033,7 @@
         </is>
       </c>
       <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC38" t="inlineStr">
+      <c r="AB38" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -4241,10 +4125,7 @@
         </is>
       </c>
       <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC39" t="inlineStr">
+      <c r="AB39" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -4336,10 +4217,7 @@
         </is>
       </c>
       <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC40" t="inlineStr">
+      <c r="AB40" t="inlineStr">
         <is>
           <t>['a desk with a computer and a book shelf ', 'a blurry photo of a person walking on a sidewalk ', 'a blurry photo of a street scene with a broken wall ', 'a blurry photo of a street scene with a street sign ', 'a brick wall with a brick wall ', 'a red and white train on a steel track ']</t>
         </is>
@@ -4431,10 +4309,7 @@
         </is>
       </c>
       <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC41" t="inlineStr">
+      <c r="AB41" t="inlineStr">
         <is>
           <t>['a garden with flowers and a bench ', 'a flower arrangement in a garden ']</t>
         </is>
@@ -4530,10 +4405,7 @@
           <t>Dealing with technology (positive, productive)</t>
         </is>
       </c>
-      <c r="AB42" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC42" t="inlineStr">
+      <c r="AB42" t="inlineStr">
         <is>
           <t>['a house with a tree and a street sign ']</t>
         </is>
@@ -4625,10 +4497,7 @@
         </is>
       </c>
       <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC43" t="inlineStr">
+      <c r="AB43" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -4720,10 +4589,7 @@
         </is>
       </c>
       <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC44" t="inlineStr">
+      <c r="AB44" t="inlineStr">
         <is>
           <t>['a plane wing with a view of the sky ', 'a plane wing with a sky background ', 'a plane wing with a view of the sky ']</t>
         </is>
@@ -4819,10 +4685,7 @@
           <t>optical change=positive; further development</t>
         </is>
       </c>
-      <c r="AB45" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC45" t="inlineStr">
+      <c r="AB45" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -4918,10 +4781,7 @@
           <t>Proactively make new friends for the loss of old ones: Openness</t>
         </is>
       </c>
-      <c r="AB46" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC46" t="inlineStr">
+      <c r="AB46" t="inlineStr">
         <is>
           <t>['two animals laying down in the grass ', 'a baby giraffe laying down in the grass ', 'a cow laying down in the grass ']</t>
         </is>
@@ -5017,10 +4877,7 @@
           <t>Prosperity; plus care=illness</t>
         </is>
       </c>
-      <c r="AB47" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC47" t="inlineStr">
+      <c r="AB47" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -5116,10 +4973,7 @@
           <t>Prosperity; mobility</t>
         </is>
       </c>
-      <c r="AB48" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC48" t="inlineStr">
+      <c r="AB48" t="inlineStr">
         <is>
           <t>['a car parked on the side of a road ', 'a car is parked in a parking lot ', 'a car is parked in a parking lot with a black car ', 'a car is parked in a parking lot with a car ', 'a car is parked in a parking lot with other cars ', 'a car is stopped at a red light ', 'a car parked in a parking lot with a bunch of cars behind it ', 'a car parked on the side of a road ', 'a car with a black seat and a white steering wheel ', "a car with a black stripe on it's hood ", 'a car with a sticker on the back of it ', 'a person walking in the rain with a bike ', 'a truck with a picture of a man on it ', 'a white car with a black seat and a white stripe on it ', 'cars parked in a parking lot ', 'two cars parked next to each other in a parking lot ']</t>
         </is>
@@ -5215,10 +5069,7 @@
           <t>Limited lifetime</t>
         </is>
       </c>
-      <c r="AB49" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC49" t="inlineStr">
+      <c r="AB49" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -5310,10 +5161,7 @@
         </is>
       </c>
       <c r="AA50" t="inlineStr"/>
-      <c r="AB50" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC50" t="inlineStr">
+      <c r="AB50" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -5405,10 +5253,7 @@
         </is>
       </c>
       <c r="AA51" t="inlineStr"/>
-      <c r="AB51" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC51" t="inlineStr">
+      <c r="AB51" t="inlineStr">
         <is>
           <t>['a house with a tree in the front yard ']</t>
         </is>
@@ -5504,10 +5349,7 @@
           <t>Love</t>
         </is>
       </c>
-      <c r="AB52" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC52" t="inlineStr">
+      <c r="AB52" t="inlineStr">
         <is>
           <t>['a person holding a pink and white cell phone ', 'a person holding a small pink and white ring ']</t>
         </is>
@@ -5599,10 +5441,7 @@
         </is>
       </c>
       <c r="AA53" t="inlineStr"/>
-      <c r="AB53" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC53" t="inlineStr">
+      <c r="AB53" t="inlineStr">
         <is>
           <t>['people sitting at tables outside ', 'a black and white photo of a black and white photo ', 'a close up picture of a black and white vase ', 'a horse is running through a fence ', 'a man in a uniform is looking at a camera ', 'a man in a white shirt and black pants walking down a street ', 'a man is jumping in the air with a soccer ball ', 'a man is talking on his cell phone while another man watches ', 'a man is walking with a hat on ', 'a man riding a skateboard down a street ', 'a man sitting at a table with a group of people ', 'a man sitting on a bench eating a piece of cake ', 'a man sitting on a bench with a woman ', 'a man swinging a baseball bat on a field ', 'a person looking at a window in a dark room ', 'a person standing next to a wall with a red and white object ', 'a person walking down a street with an umbrella ', 'a row of chairs with many different colored handles ', 'a small kitchen with a stove and a window ', 'a table with a cake and a candle on it ', 'a table with a plate of cake and a cup of coffee ', 'a woman and a man are sitting on a street ', 'a woman in a red shirt and a red tie ', 'a woman is drinking from a wine glass ', 'a woman is looking at a cell phone ', "a woman is looking at a man's glasses ", 'a woman is looking at her cell phone ', 'a woman is lying on the ground with a man ', 'a woman sitting at a table with a laptop ', 'a woman sitting on a bench with a book ', 'a woman sitting on a bench with a man ', 'a woman walking down a street with a suitcase ', 'a young man sitting at a table with a plate of food ', 'people are looking at a screen ', 'two women sitting on a bench looking at their cell phones ']</t>
         </is>
@@ -5694,10 +5533,7 @@
         </is>
       </c>
       <c r="AA54" t="inlineStr"/>
-      <c r="AB54" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC54" t="inlineStr">
+      <c r="AB54" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -5789,10 +5625,7 @@
         </is>
       </c>
       <c r="AA55" t="inlineStr"/>
-      <c r="AB55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC55" t="inlineStr">
+      <c r="AB55" t="inlineStr">
         <is>
           <t>['a remote control sitting on top of a table ', 'a bottle of wine sitting on top of a table ', 'a pair of scissors sitting on top of a table ']</t>
         </is>
@@ -5888,10 +5721,7 @@
           <t>Fixed</t>
         </is>
       </c>
-      <c r="AB56" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC56" t="inlineStr">
+      <c r="AB56" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -5983,10 +5813,7 @@
         </is>
       </c>
       <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC57" t="inlineStr">
+      <c r="AB57" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -6082,10 +5909,7 @@
           <t>Auto statt Bus</t>
         </is>
       </c>
-      <c r="AB58" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC58" t="inlineStr">
+      <c r="AB58" t="inlineStr">
         <is>
           <t>['a bus is driving down the street ', 'a bicycle is leaning against a wall ', 'a bus is parked on the side of the road ', 'a car is parked on the side of the road ', 'a man in a black shirt and jeans standing next to a car ', 'a man in a red jacket and a red hat ', 'a truck with a car on top of it ', 'a truck with a large white truck on the back ']</t>
         </is>
@@ -6177,10 +6001,7 @@
         </is>
       </c>
       <c r="AA59" t="inlineStr"/>
-      <c r="AB59" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC59" t="inlineStr">
+      <c r="AB59" t="inlineStr">
         <is>
           <t>['a car parked on the side of a road ', 'a bike rack with a fence and a fence post ', 'a car parked on the side of a road ', 'a person riding a bike on a sidewalk ']</t>
         </is>
@@ -6272,10 +6093,7 @@
         </is>
       </c>
       <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC60" t="inlineStr">
+      <c r="AB60" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -6367,10 +6185,7 @@
         </is>
       </c>
       <c r="AA61" t="inlineStr"/>
-      <c r="AB61" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC61" t="inlineStr">
+      <c r="AB61" t="inlineStr">
         <is>
           <t>['a car parked in front of a store with a sign ', 'a car is parked in a garage with a window ', 'a car is parked in a parking lot ', 'a car is parked in a parking lot with a sign ', 'a car is parked on the street with a blue stripe ', "a car with a white stripe on it's hood ", 'a white car with a black seat and a white stripe on it ', 'a window with a picture of a train on it ']</t>
         </is>
@@ -6462,10 +6277,7 @@
         </is>
       </c>
       <c r="AA62" t="inlineStr"/>
-      <c r="AB62" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC62" t="inlineStr">
+      <c r="AB62" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -6557,10 +6369,7 @@
         </is>
       </c>
       <c r="AA63" t="inlineStr"/>
-      <c r="AB63" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC63" t="inlineStr">
+      <c r="AB63" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -6652,10 +6461,7 @@
         </is>
       </c>
       <c r="AA64" t="inlineStr"/>
-      <c r="AB64" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC64" t="inlineStr">
+      <c r="AB64" t="inlineStr">
         <is>
           <t>['a door is open to a small room with a blue door ']</t>
         </is>
@@ -6747,10 +6553,7 @@
         </is>
       </c>
       <c r="AA65" t="inlineStr"/>
-      <c r="AB65" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC65" t="inlineStr">
+      <c r="AB65" t="inlineStr">
         <is>
           <t>['a clock tower with a steeple and a steeple with a clock on it ', 'a brick building with a large window ']</t>
         </is>
@@ -6842,10 +6645,7 @@
         </is>
       </c>
       <c r="AA66" t="inlineStr"/>
-      <c r="AB66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC66" t="inlineStr">
+      <c r="AB66" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -6937,10 +6737,7 @@
         </is>
       </c>
       <c r="AA67" t="inlineStr"/>
-      <c r="AB67" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC67" t="inlineStr">
+      <c r="AB67" t="inlineStr">
         <is>
           <t>['a red chair sitting in front of a window ', 'a red chair in a room with a red blanket ']</t>
         </is>
@@ -7032,10 +6829,7 @@
         </is>
       </c>
       <c r="AA68" t="inlineStr"/>
-      <c r="AB68" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC68" t="inlineStr">
+      <c r="AB68" t="inlineStr">
         <is>
           <t>['a street scene with a bicycle parked in front of a building ', 'a bench with a plant in it ', 'a bicycle parked next to a pole with a sign ', 'a blurry photo of a person on a sidewalk ', 'a blurry photo of a person standing in a field ', 'a blurry photo of a person walking on a sidewalk ', 'a fire hydrant with a white background ', 'a garden with a bunch of plants in it ', 'a plant in a garden with a window ', 'a pot of flowers sitting on a bench ', 'a small garden with a large flower pot ', 'a street scene with a person walking by ', 'a woman is sitting in a chair with a wooden table ']</t>
         </is>
@@ -7131,10 +6925,7 @@
           <t>Culture (as architecture)</t>
         </is>
       </c>
-      <c r="AB69" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC69" t="inlineStr">
+      <c r="AB69" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -7230,10 +7021,7 @@
           <t>Relaxation/idleness</t>
         </is>
       </c>
-      <c r="AB70" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC70" t="inlineStr">
+      <c r="AB70" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -7329,10 +7117,7 @@
           <t>Activity!</t>
         </is>
       </c>
-      <c r="AB71" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC71" t="inlineStr">
+      <c r="AB71" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -7424,10 +7209,7 @@
         </is>
       </c>
       <c r="AA72" t="inlineStr"/>
-      <c r="AB72" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC72" t="inlineStr">
+      <c r="AB72" t="inlineStr">
         <is>
           <t>['a bench sits in front of a large building ', 'a bench with a flower arrangement on it ', 'a blurry photo of a person standing in front of a tv ', 'a woman is holding a red and white kite ']</t>
         </is>
@@ -7523,10 +7305,7 @@
           <t>diminishing strength</t>
         </is>
       </c>
-      <c r="AB73" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC73" t="inlineStr">
+      <c r="AB73" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -7618,10 +7397,7 @@
         </is>
       </c>
       <c r="AA74" t="inlineStr"/>
-      <c r="AB74" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC74" t="inlineStr">
+      <c r="AB74" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -7717,10 +7493,7 @@
           <t>diminishing strength</t>
         </is>
       </c>
-      <c r="AB75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC75" t="inlineStr">
+      <c r="AB75" t="inlineStr">
         <is>
           <t>['bikes parked next to each other ', 'a bicycle is parked next to a bicycle rack ', 'a bicycle is parked on the side of the road ', 'a bicycle with a bag on it ', 'a bicycle with a basket on it ', 'a bicycle with a bicycle handlebars attached to it ', 'a bike parked in a garage next to a wall ', 'a bike rack with a bunch of bikes ', 'a man sitting on a bike in a room ', 'a motorcycle parked in a garage with a man standing behind it ']</t>
         </is>
@@ -7812,10 +7585,7 @@
         </is>
       </c>
       <c r="AA76" t="inlineStr"/>
-      <c r="AB76" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC76" t="inlineStr">
+      <c r="AB76" t="inlineStr">
         <is>
           <t>['a bus is parked on the side of the road ', 'a blurry photo of a person flying a kite ', 'a white and blue train on a track ']</t>
         </is>
@@ -7907,10 +7677,7 @@
         </is>
       </c>
       <c r="AA77" t="inlineStr"/>
-      <c r="AB77" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC77" t="inlineStr">
+      <c r="AB77" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -8002,10 +7769,7 @@
         </is>
       </c>
       <c r="AA78" t="inlineStr"/>
-      <c r="AB78" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC78" t="inlineStr">
+      <c r="AB78" t="inlineStr">
         <is>
           <t>['a statue of a bear sitting on a bench ', 'a person is walking on a beach with a fence ']</t>
         </is>
@@ -8097,10 +7861,7 @@
         </is>
       </c>
       <c r="AA79" t="inlineStr"/>
-      <c r="AB79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC79" t="inlineStr">
+      <c r="AB79" t="inlineStr">
         <is>
           <t>['a large group of flowers in a flower pot ', 'a large group of green flowers in a garden ']</t>
         </is>
@@ -8196,10 +7957,7 @@
           <t>Prosperity negative</t>
         </is>
       </c>
-      <c r="AB80" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC80" t="inlineStr">
+      <c r="AB80" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -8291,10 +8049,7 @@
         </is>
       </c>
       <c r="AA81" t="inlineStr"/>
-      <c r="AB81" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC81" t="inlineStr">
+      <c r="AB81" t="inlineStr">
         <is>
           <t>['a wooden bench in a park with trees ', 'a table with chairs and a table cloth ', 'a wooden chair and a table in a room ']</t>
         </is>
@@ -8386,10 +8141,7 @@
         </is>
       </c>
       <c r="AA82" t="inlineStr"/>
-      <c r="AB82" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC82" t="inlineStr">
+      <c r="AB82" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -8485,10 +8237,7 @@
           <t>diminishing strength</t>
         </is>
       </c>
-      <c r="AB83" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC83" t="inlineStr">
+      <c r="AB83" t="inlineStr">
         <is>
           <t>['a park bench sitting next to a tree ', 'a park bench sitting on the side of a road ', 'a park bench with a green and white striped bench ']</t>
         </is>
@@ -8580,10 +8329,7 @@
         </is>
       </c>
       <c r="AA84" t="inlineStr"/>
-      <c r="AB84" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC84" t="inlineStr">
+      <c r="AB84" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -8679,10 +8425,7 @@
           <t>plus education</t>
         </is>
       </c>
-      <c r="AB85" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC85" t="inlineStr">
+      <c r="AB85" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -8774,10 +8517,7 @@
         </is>
       </c>
       <c r="AA86" t="inlineStr"/>
-      <c r="AB86" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC86" t="inlineStr">
+      <c r="AB86" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -8869,10 +8609,7 @@
         </is>
       </c>
       <c r="AA87" t="inlineStr"/>
-      <c r="AB87" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC87" t="inlineStr">
+      <c r="AB87" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -8968,10 +8705,7 @@
           <t>compensate</t>
         </is>
       </c>
-      <c r="AB88" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC88" t="inlineStr">
+      <c r="AB88" t="inlineStr">
         <is>
           <t>['a remote control with a black background ']</t>
         </is>
@@ -9067,10 +8801,7 @@
           <t>diminishing strength</t>
         </is>
       </c>
-      <c r="AB89" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC89" t="inlineStr">
+      <c r="AB89" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -9162,10 +8893,7 @@
         </is>
       </c>
       <c r="AA90" t="inlineStr"/>
-      <c r="AB90" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC90" t="inlineStr">
+      <c r="AB90" t="inlineStr">
         <is>
           <t>['a pair of glasses with a black background ']</t>
         </is>
@@ -9261,10 +8989,7 @@
           <t>Available time as a resource in old age</t>
         </is>
       </c>
-      <c r="AB91" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC91" t="inlineStr">
+      <c r="AB91" t="inlineStr">
         <is>
           <t>['a clock with a face on it ', 'a clock with a face on it ']</t>
         </is>
@@ -9356,10 +9081,7 @@
         </is>
       </c>
       <c r="AA92" t="inlineStr"/>
-      <c r="AB92" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC92" t="inlineStr">
+      <c r="AB92" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -9451,10 +9173,7 @@
         </is>
       </c>
       <c r="AA93" t="inlineStr"/>
-      <c r="AB93" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC93" t="inlineStr">
+      <c r="AB93" t="inlineStr">
         <is>
           <t>['a garden table with a plant and a chair ', 'a wooden bench with a wooden chair and a wooden chair chair ', 'a wooden chair with a wooden chair frame ', 'a wooden table with a bowl of fruit on top ', 'a wooden table with a green chair and a plant ', 'a yellow plant in a vase with a yellow flower ']</t>
         </is>
@@ -9546,10 +9265,7 @@
         </is>
       </c>
       <c r="AA94" t="inlineStr"/>
-      <c r="AB94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC94" t="inlineStr">
+      <c r="AB94" t="inlineStr">
         <is>
           <t>['a flower pot filled with lots of different types of flowers ', 'a flower arrangement in a flower pot ']</t>
         </is>
@@ -9641,10 +9357,7 @@
         </is>
       </c>
       <c r="AA95" t="inlineStr"/>
-      <c r="AB95" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC95" t="inlineStr">
+      <c r="AB95" t="inlineStr">
         <is>
           <t>['a beach with a clear blue sky ']</t>
         </is>
@@ -9736,10 +9449,7 @@
         </is>
       </c>
       <c r="AA96" t="inlineStr"/>
-      <c r="AB96" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC96" t="inlineStr">
+      <c r="AB96" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -9831,10 +9541,7 @@
         </is>
       </c>
       <c r="AA97" t="inlineStr"/>
-      <c r="AB97" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC97" t="inlineStr">
+      <c r="AB97" t="inlineStr">
         <is>
           <t>['a red door with a red handle and a red door ']</t>
         </is>
@@ -9926,10 +9633,7 @@
         </is>
       </c>
       <c r="AA98" t="inlineStr"/>
-      <c r="AB98" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC98" t="inlineStr">
+      <c r="AB98" t="inlineStr">
         <is>
           <t>['a bathroom with a shower stall and a toilet ', 'a white toilet sitting in a bathroom ']</t>
         </is>
@@ -10021,10 +9725,7 @@
         </is>
       </c>
       <c r="AA99" t="inlineStr"/>
-      <c r="AB99" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC99" t="inlineStr">
+      <c r="AB99" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -10116,10 +9817,7 @@
         </is>
       </c>
       <c r="AA100" t="inlineStr"/>
-      <c r="AB100" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC100" t="inlineStr">
+      <c r="AB100" t="inlineStr">
         <is>
           <t>['a bottle of milk and a book on a counter ', 'a bottle of water sitting on top of a counter ', 'a box with a box in it ', 'a computer mouse sitting on top of a pile of books ', 'a white toilet paper with a picture of a person ', 'a white toilet sitting in a bathroom ']</t>
         </is>
@@ -10211,10 +9909,7 @@
         </is>
       </c>
       <c r="AA101" t="inlineStr"/>
-      <c r="AB101" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC101" t="inlineStr">
+      <c r="AB101" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -10306,10 +10001,7 @@
         </is>
       </c>
       <c r="AA102" t="inlineStr"/>
-      <c r="AB102" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC102" t="inlineStr">
+      <c r="AB102" t="inlineStr">
         <is>
           <t>['a table with chairs and a table cloth ', 'a bench with a bicycle on it ', 'a wooden bench with a wooden table and chairs ']</t>
         </is>
@@ -10401,10 +10093,7 @@
         </is>
       </c>
       <c r="AA103" t="inlineStr"/>
-      <c r="AB103" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC103" t="inlineStr">
+      <c r="AB103" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -10496,10 +10185,7 @@
         </is>
       </c>
       <c r="AA104" t="inlineStr"/>
-      <c r="AB104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC104" t="inlineStr">
+      <c r="AB104" t="inlineStr">
         <is>
           <t>['a lake with a body of water and a beach ']</t>
         </is>
@@ -10591,10 +10277,7 @@
         </is>
       </c>
       <c r="AA105" t="inlineStr"/>
-      <c r="AB105" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC105" t="inlineStr">
+      <c r="AB105" t="inlineStr">
         <is>
           <t>['a black chair with a black seat and a black handle ', 'a black chair with a black seat and a black chair ']</t>
         </is>
@@ -10686,10 +10369,7 @@
         </is>
       </c>
       <c r="AA106" t="inlineStr"/>
-      <c r="AB106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC106" t="inlineStr">
+      <c r="AB106" t="inlineStr">
         <is>
           <t>['a person holding a cell phone in their hand ', 'a person holding a cell phone in their hand ']</t>
         </is>
@@ -10781,10 +10461,7 @@
         </is>
       </c>
       <c r="AA107" t="inlineStr"/>
-      <c r="AB107" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC107" t="inlineStr">
+      <c r="AB107" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -10876,10 +10553,7 @@
         </is>
       </c>
       <c r="AA108" t="inlineStr"/>
-      <c r="AB108" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC108" t="inlineStr">
+      <c r="AB108" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -10971,10 +10645,7 @@
         </is>
       </c>
       <c r="AA109" t="inlineStr"/>
-      <c r="AB109" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC109" t="inlineStr">
+      <c r="AB109" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -11070,10 +10741,7 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="AB110" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC110" t="inlineStr">
+      <c r="AB110" t="inlineStr">
         <is>
           <t>['a woman in a red dress with a red bow tie ', 'a person wearing a pink shirt and a black glove ', 'a woman in a pink dress brushing her teeth ', 'a woman in a red dress holding a pink bow ', 'a woman in a red dress with red hair ']</t>
         </is>
@@ -11165,10 +10833,7 @@
         </is>
       </c>
       <c r="AA111" t="inlineStr"/>
-      <c r="AB111" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC111" t="inlineStr">
+      <c r="AB111" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -11260,10 +10925,7 @@
         </is>
       </c>
       <c r="AA112" t="inlineStr"/>
-      <c r="AB112" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC112" t="inlineStr">
+      <c r="AB112" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -11359,10 +11021,7 @@
           <t>Senior-friendly living</t>
         </is>
       </c>
-      <c r="AB113" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC113" t="inlineStr">
+      <c r="AB113" t="inlineStr">
         <is>
           <t>['a large brick building with a garden and a bench ', 'a garden with flowers and plants in it ', 'a pottery pot sitting on a sidewalk next to a bush ', 'a row of flowers sitting on top of a brick wall ', 'a white and black fire hydrant sitting next to a white wall ', 'a white vase with flowers on a table ']</t>
         </is>
@@ -11458,10 +11117,7 @@
           <t>Shopping facilities close to home</t>
         </is>
       </c>
-      <c r="AB114" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC114" t="inlineStr">
+      <c r="AB114" t="inlineStr">
         <is>
           <t>['a banana, a jar of peanut butter, a jar of peanut butter, a jar of peanut butter, a jar of peanut butter, a jar', 'a banana and a banana peel on a table ', 'a bottle of milk sitting on top of a table ', 'a white plate with a banana on it ', 'a yellow and black checkered table cloth and a yellow and black checkered table cloth ']</t>
         </is>
@@ -11557,10 +11213,7 @@
           <t>Dealing with technology; self-efficacy (ambivalent, but productive)</t>
         </is>
       </c>
-      <c r="AB115" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC115" t="inlineStr">
+      <c r="AB115" t="inlineStr">
         <is>
           <t>['a computer desk with a monitor, keyboard, mouse and a keyboard ', 'a black and white cellphone sitting on a wooden table ', 'a black shoe is on a black surface ', 'a computer mouse sitting on top of a wooden desk ', 'a keyboard with a black and white keyboard ', 'a laptop computer with a screen on it ', 'a mouse and a mousepad on a table ']</t>
         </is>
@@ -11652,10 +11305,7 @@
         </is>
       </c>
       <c r="AA116" t="inlineStr"/>
-      <c r="AB116" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC116" t="inlineStr">
+      <c r="AB116" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -11747,10 +11397,7 @@
         </is>
       </c>
       <c r="AA117" t="inlineStr"/>
-      <c r="AB117" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC117" t="inlineStr">
+      <c r="AB117" t="inlineStr">
         <is>
           <t>['a pair of glasses on a wooden table ', 'a pair of glasses on a wooden table ']</t>
         </is>
@@ -11846,10 +11493,7 @@
           <t>diminishing strength</t>
         </is>
       </c>
-      <c r="AB118" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC118" t="inlineStr">
+      <c r="AB118" t="inlineStr">
         <is>
           <t>['a bicycle parked in a room with a basket ', 'a bicycle parked next to a wall with a bike rack ', 'a bicycle with a backpack and a bag on it ', 'a bicycle with a basket on the back ', 'a black suitcase with a black handle and a black bag ']</t>
         </is>
@@ -11941,10 +11585,7 @@
         </is>
       </c>
       <c r="AA119" t="inlineStr"/>
-      <c r="AB119" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC119" t="inlineStr">
+      <c r="AB119" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -12036,10 +11677,7 @@
         </is>
       </c>
       <c r="AA120" t="inlineStr"/>
-      <c r="AB120" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC120" t="inlineStr">
+      <c r="AB120" t="inlineStr">
         <is>
           <t>['a tennis racket and a ball on a table ', 'a red and white tennis racket and a ball ']</t>
         </is>
@@ -12131,10 +11769,7 @@
         </is>
       </c>
       <c r="AA121" t="inlineStr"/>
-      <c r="AB121" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC121" t="inlineStr">
+      <c r="AB121" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -12230,10 +11865,7 @@
           <t>rather work, therefore activity not experiencing and enjoying nature!</t>
         </is>
       </c>
-      <c r="AB122" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC122" t="inlineStr">
+      <c r="AB122" t="inlineStr">
         <is>
           <t>['a garden with plants and a fence ', 'a garden of plants with a large pot of flowers ', 'a pot filled with lots of green flowers ', 'a pot of flowers sitting on a table ', 'a vase filled with flowers sitting on a lawn ']</t>
         </is>
@@ -12325,10 +11957,7 @@
         </is>
       </c>
       <c r="AA123" t="inlineStr"/>
-      <c r="AB123" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC123" t="inlineStr">
+      <c r="AB123" t="inlineStr">
         <is>
           <t>['two pairs of shoes on a wooden table ', 'a pair of black shoes on a wooden table ', 'a pair of shoes with a pair of black shoes on them ']</t>
         </is>
@@ -12420,10 +12049,7 @@
         </is>
       </c>
       <c r="AA124" t="inlineStr"/>
-      <c r="AB124" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC124" t="inlineStr">
+      <c r="AB124" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -12515,10 +12141,7 @@
         </is>
       </c>
       <c r="AA125" t="inlineStr"/>
-      <c r="AB125" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC125" t="inlineStr">
+      <c r="AB125" t="inlineStr">
         <is>
           <t>['a camera and a small camera holder on a table ']</t>
         </is>
@@ -12610,10 +12233,7 @@
         </is>
       </c>
       <c r="AA126" t="inlineStr"/>
-      <c r="AB126" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC126" t="inlineStr">
+      <c r="AB126" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -12709,10 +12329,7 @@
           <t>Further development</t>
         </is>
       </c>
-      <c r="AB127" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC127" t="inlineStr">
+      <c r="AB127" t="inlineStr">
         <is>
           <t>['a white and black clock on a white wall ', 'a black and white photo of a white and blue clock ']</t>
         </is>
@@ -12804,10 +12421,7 @@
         </is>
       </c>
       <c r="AA128" t="inlineStr"/>
-      <c r="AB128" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC128" t="inlineStr">
+      <c r="AB128" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -12903,10 +12517,7 @@
           <t>Self-esteem; further development</t>
         </is>
       </c>
-      <c r="AB129" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC129" t="inlineStr">
+      <c r="AB129" t="inlineStr">
         <is>
           <t>['a vase filled with pink flowers next to a window ', 'a person is standing near a tree ']</t>
         </is>
@@ -13002,10 +12613,7 @@
           <t>Self-knowledge</t>
         </is>
       </c>
-      <c r="AB130" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC130" t="inlineStr">
+      <c r="AB130" t="inlineStr">
         <is>
           <t>['a red book with a picture of a red rose on it ']</t>
         </is>
@@ -13101,10 +12709,7 @@
           <t>Limited lifetime; time must be utilised</t>
         </is>
       </c>
-      <c r="AB131" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC131" t="inlineStr">
+      <c r="AB131" t="inlineStr">
         <is>
           <t>['a brown and black clock on a brown rug ', 'a clock with a face on it ']</t>
         </is>
@@ -13200,10 +12805,7 @@
           <t>Love</t>
         </is>
       </c>
-      <c r="AB132" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC132" t="inlineStr">
+      <c r="AB132" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -13295,10 +12897,7 @@
         </is>
       </c>
       <c r="AA133" t="inlineStr"/>
-      <c r="AB133" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC133" t="inlineStr">
+      <c r="AB133" t="inlineStr">
         <is>
           <t>['a piece of cake on a plate with a fork ', 'a book with a picture of a person eating a piece of food ', 'a piece of cake on a plate ', 'a piece of cake on a plate with a fork ', 'a piece of chocolate cake with a slice missing ']</t>
         </is>
@@ -13390,10 +12989,7 @@
         </is>
       </c>
       <c r="AA134" t="inlineStr"/>
-      <c r="AB134" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC134" t="inlineStr">
+      <c r="AB134" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -13485,10 +13081,7 @@
         </is>
       </c>
       <c r="AA135" t="inlineStr"/>
-      <c r="AB135" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC135" t="inlineStr">
+      <c r="AB135" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -13580,10 +13173,7 @@
         </is>
       </c>
       <c r="AA136" t="inlineStr"/>
-      <c r="AB136" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC136" t="inlineStr">
+      <c r="AB136" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -13675,10 +13265,7 @@
         </is>
       </c>
       <c r="AA137" t="inlineStr"/>
-      <c r="AB137" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC137" t="inlineStr">
+      <c r="AB137" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -13774,10 +13361,7 @@
           <t>Fixed</t>
         </is>
       </c>
-      <c r="AB138" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC138" t="inlineStr">
+      <c r="AB138" t="inlineStr">
         <is>
           <t>['a cake with a bunch of candles on it ', 'a cake with candles on it ']</t>
         </is>
@@ -13873,10 +13457,7 @@
           <t>Fixed</t>
         </is>
       </c>
-      <c r="AB139" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC139" t="inlineStr">
+      <c r="AB139" t="inlineStr">
         <is>
           <t>['a vase filled with flowers on a table ', 'a glass of wine sitting on a table ', 'a glass vase filled with water and green leaves ', 'a glass vase with a glass of water ', 'a person holding a glass of wine ', 'a person holding a wine glass in their hand ', 'a vase filled with flowers on a table ']</t>
         </is>
@@ -13968,10 +13549,7 @@
         </is>
       </c>
       <c r="AA140" t="inlineStr"/>
-      <c r="AB140" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC140" t="inlineStr">
+      <c r="AB140" t="inlineStr">
         <is>
           <t>["a person's feet with a blue and white striped shirt ", 'a blue and white striped shirt with a blue and white stripe ', 'a blue blanket is laying on a bed ', "a person's hand is covered in a blue and white sheet "]</t>
         </is>
@@ -14067,10 +13645,7 @@
           <t>Be active; further development/education</t>
         </is>
       </c>
-      <c r="AB141" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC141" t="inlineStr">
+      <c r="AB141" t="inlineStr">
         <is>
           <t>['a book shelf filled with books and a bird ', 'a black and white photo of a skateboard ', 'a blue and white train window with a blue sky ', 'a book is sitting on a shelf with a poster ', 'a book shelf filled with books and a person holding a book ', 'a book shelf filled with books and a stack of books ', 'a book shelf filled with books and a stuffed animal ', 'a book shelf with a bunch of books ', 'a book shelf with books and a pair of scissors ', 'a book with a picture of a book cover ', 'a box of books with a clock on top ', 'a box of books with a picture of a person ', 'a pile of books on top of each other ', 'a refrigerator with a sign on it ', 'a row of books with numbers on them ', 'a sign that says "no parking" ', 'a stack of books on top of each other ', 'a white screen with a black and white sign ']</t>
         </is>
@@ -14166,10 +13741,7 @@
           <t>Competence; self-efficacy</t>
         </is>
       </c>
-      <c r="AB142" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC142" t="inlineStr">
+      <c r="AB142" t="inlineStr">
         <is>
           <t>['a pot on a stove top with a metal handle ', 'a metal pan with a metal spoon on top of it ', 'a metal pot with a metal spoon on top of it ']</t>
         </is>
@@ -14261,10 +13833,7 @@
         </is>
       </c>
       <c r="AA143" t="inlineStr"/>
-      <c r="AB143" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC143" t="inlineStr">
+      <c r="AB143" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -14356,10 +13925,7 @@
         </is>
       </c>
       <c r="AA144" t="inlineStr"/>
-      <c r="AB144" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC144" t="inlineStr">
+      <c r="AB144" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -14451,10 +14017,7 @@
         </is>
       </c>
       <c r="AA145" t="inlineStr"/>
-      <c r="AB145" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC145" t="inlineStr">
+      <c r="AB145" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -14546,10 +14109,7 @@
         </is>
       </c>
       <c r="AA146" t="inlineStr"/>
-      <c r="AB146" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC146" t="inlineStr">
+      <c r="AB146" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -14641,10 +14201,7 @@
         </is>
       </c>
       <c r="AA147" t="inlineStr"/>
-      <c r="AB147" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC147" t="inlineStr">
+      <c r="AB147" t="inlineStr">
         <is>
           <t>['a park bench is sitting in the grass ', 'a bench sitting on top of a grass covered field ']</t>
         </is>
@@ -14740,10 +14297,7 @@
           <t>Experience and enjoy nature</t>
         </is>
       </c>
-      <c r="AB148" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC148" t="inlineStr">
+      <c r="AB148" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -14835,10 +14389,7 @@
         </is>
       </c>
       <c r="AA149" t="inlineStr"/>
-      <c r="AB149" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC149" t="inlineStr">
+      <c r="AB149" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -14930,10 +14481,7 @@
         </is>
       </c>
       <c r="AA150" t="inlineStr"/>
-      <c r="AB150" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC150" t="inlineStr">
+      <c r="AB150" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -15029,10 +14577,7 @@
           <t>Pleasure; aids</t>
         </is>
       </c>
-      <c r="AB151" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC151" t="inlineStr">
+      <c r="AB151" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -15124,10 +14669,7 @@
         </is>
       </c>
       <c r="AA152" t="inlineStr"/>
-      <c r="AB152" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC152" t="inlineStr">
+      <c r="AB152" t="inlineStr">
         <is>
           <t>['a book with a picture of a plant on it ', 'a small piece of paper with a picture of a person ']</t>
         </is>
@@ -15219,10 +14761,7 @@
         </is>
       </c>
       <c r="AA153" t="inlineStr"/>
-      <c r="AB153" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC153" t="inlineStr">
+      <c r="AB153" t="inlineStr">
         <is>
           <t>['a book is sitting on a wooden table ', 'a sign that says "don\'t eat this" ', 'a sign that says "don\'t eat" ', 'a sign that says "don\'t eat" on it ', 'a sign that says "don\'t miss" on it ']</t>
         </is>
@@ -15314,10 +14853,7 @@
         </is>
       </c>
       <c r="AA154" t="inlineStr"/>
-      <c r="AB154" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC154" t="inlineStr">
+      <c r="AB154" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -15413,10 +14949,7 @@
           <t>Craft</t>
         </is>
       </c>
-      <c r="AB155" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC155" t="inlineStr">
+      <c r="AB155" t="inlineStr">
         <is>
           <t>['a pair of scissors sitting on top of a wooden table ', 'a pair of scissors sitting on top of a wooden table ']</t>
         </is>
@@ -15508,10 +15041,7 @@
         </is>
       </c>
       <c r="AA156" t="inlineStr"/>
-      <c r="AB156" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC156" t="inlineStr">
+      <c r="AB156" t="inlineStr">
         <is>
           <t>['a bike parked next to a car in front of a house ', 'a bicycle parked next to a wall with a cat on it ', 'a black car with a black seat and a black stripe on the hood ', 'a car is parked in a parking lot ', 'a car parked in front of a window ', 'a car with a red hood and a black tire ']</t>
         </is>
@@ -15603,10 +15133,7 @@
         </is>
       </c>
       <c r="AA157" t="inlineStr"/>
-      <c r="AB157" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC157" t="inlineStr">
+      <c r="AB157" t="inlineStr">
         <is>
           <t>['a tree in the middle of a forest ']</t>
         </is>
@@ -15702,10 +15229,7 @@
           <t>Work; you also have to move for it; joy that you can still do it</t>
         </is>
       </c>
-      <c r="AB158" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC158" t="inlineStr">
+      <c r="AB158" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -15801,10 +15325,7 @@
           <t>keeps my grey cells fit; searching for a nose bike/unloved</t>
         </is>
       </c>
-      <c r="AB159" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC159" t="inlineStr">
+      <c r="AB159" t="inlineStr">
         <is>
           <t>['a person holding a book with a book on it ', 'a hand holding a cell phone with a sticker on it ', 'a hand holding a paper with a note on it ', 'a person holding a book with a book cover ', 'a person holding a book with a hand on it ', 'a person holding a cell phone in their hand ', 'a person holding a paper with a white stripe on it ']</t>
         </is>
@@ -15900,10 +15421,7 @@
           <t>moving in a group; friends; husband</t>
         </is>
       </c>
-      <c r="AB160" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC160" t="inlineStr">
+      <c r="AB160" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -15999,10 +15517,7 @@
           <t>still drive my own car; still not used to all the technology</t>
         </is>
       </c>
-      <c r="AB161" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC161" t="inlineStr">
+      <c r="AB161" t="inlineStr">
         <is>
           <t>['a car with a lot of buttons on it ', 'a car dashboard with a picture of a dog on it ', 'a car with a lot of buttons on it ']</t>
         </is>
@@ -16098,10 +15613,7 @@
           <t>enjoys the beauty of the garden</t>
         </is>
       </c>
-      <c r="AB162" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC162" t="inlineStr">
+      <c r="AB162" t="inlineStr">
         <is>
           <t>['a person holding a flower in their hand ', 'a person holding a bunch of flowers in their hands ', 'a person holding a flower in their hand ', 'a person holding a pair of scissors in their hand ', 'a person holding a pair of scissors in their hands ']</t>
         </is>
@@ -16197,10 +15709,7 @@
           <t>Picture stands for gymnastics group in rehabilitation sport</t>
         </is>
       </c>
-      <c r="AB163" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC163" t="inlineStr">
+      <c r="AB163" t="inlineStr">
         <is>
           <t>['a tennis racket and tennis ball on a tennis court ', 'a pair of tennis shoes on a tennis court ', 'a tennis racket and ball on a tennis court ', 'a tennis racket and tennis ball in a basket ', 'a tennis racket is in the air with a ball ', 'a tennis racket is on a tennis court ']</t>
         </is>
@@ -16296,10 +15805,7 @@
           <t>Idleness after work</t>
         </is>
       </c>
-      <c r="AB164" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC164" t="inlineStr">
+      <c r="AB164" t="inlineStr">
         <is>
           <t>['a person is spraying water on a garden hose ', 'a person holding a cell phone in their hand ', "a person's feet are in the grass ", "a person's feet are touching the ground "]</t>
         </is>
@@ -16395,10 +15901,7 @@
           <t>Our children are always there; very close together</t>
         </is>
       </c>
-      <c r="AB165" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC165" t="inlineStr">
+      <c r="AB165" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -16494,10 +15997,7 @@
           <t>historical. Books; keep mentally fit and agile</t>
         </is>
       </c>
-      <c r="AB166" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC166" t="inlineStr">
+      <c r="AB166" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -16593,10 +16093,7 @@
           <t>together; group itself is important; must also make an effort with the head</t>
         </is>
       </c>
-      <c r="AB167" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC167" t="inlineStr">
+      <c r="AB167" t="inlineStr">
         <is>
           <t>['people standing around a room ', 'a man holding a baseball bat while standing on a sidewalk ', 'a man standing in front of a window ', 'a man standing next to a woman holding a wii remote ', 'a woman holding a nintendo wii game controller ', 'a woman holding a wine glass in her hand ', 'a woman is looking at her cell phone while a man is standing by her ', 'a woman is talking on a cell phone ', 'a young boy and a young girl standing in a room ']</t>
         </is>
@@ -16692,10 +16189,7 @@
           <t>plus death + dying; memories of deceased persons</t>
         </is>
       </c>
-      <c r="AB168" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC168" t="inlineStr">
+      <c r="AB168" t="inlineStr">
         <is>
           <t>['a red and white book sitting on top of a table ', 'a red and white book sitting on top of a red table ', 'a red and white book with a red cover ']</t>
         </is>
@@ -16791,10 +16285,7 @@
           <t>I take care of myself; now I spend money on myself</t>
         </is>
       </c>
-      <c r="AB169" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC169" t="inlineStr">
+      <c r="AB169" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -16890,10 +16381,7 @@
           <t>Medical care close to home</t>
         </is>
       </c>
-      <c r="AB170" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC170" t="inlineStr">
+      <c r="AB170" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -16989,10 +16477,7 @@
           <t>Can take rollator with him</t>
         </is>
       </c>
-      <c r="AB171" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC171" t="inlineStr">
+      <c r="AB171" t="inlineStr">
         <is>
           <t>['a door is open to a hallway with a mirror ']</t>
         </is>
@@ -17084,10 +16569,7 @@
         </is>
       </c>
       <c r="AA172" t="inlineStr"/>
-      <c r="AB172" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC172" t="inlineStr">
+      <c r="AB172" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -17183,10 +16665,7 @@
           <t>Move and let go sometimes</t>
         </is>
       </c>
-      <c r="AB173" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC173" t="inlineStr">
+      <c r="AB173" t="inlineStr">
         <is>
           <t>['bikes parked next to each other ', 'a bicycle is parked on a sidewalk ', 'a bicycle parked next to a fence with a sign ', 'a bird is standing in a cage ', 'a green bicycle with a yellow flower in it ', 'a row of bicycles parked next to each other ', 'bicycles are parked in a row ', 'bikes parked on a rack in a row ']</t>
         </is>
@@ -17278,10 +16757,7 @@
         </is>
       </c>
       <c r="AA174" t="inlineStr"/>
-      <c r="AB174" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC174" t="inlineStr">
+      <c r="AB174" t="inlineStr">
         <is>
           <t>['a woman is sitting on a couch with a small table ', 'a person holding a piece of paper with a picture of a person ', 'a table with a white table cloth and a white table cloth ', 'a woman sitting at a table with a piece of paper ', 'a woman sitting on a couch with a small child ']</t>
         </is>
@@ -17377,10 +16853,7 @@
           <t>Do not like taking tablets</t>
         </is>
       </c>
-      <c r="AB175" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC175" t="inlineStr">
+      <c r="AB175" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -17472,10 +16945,7 @@
         </is>
       </c>
       <c r="AA176" t="inlineStr"/>
-      <c r="AB176" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC176" t="inlineStr">
+      <c r="AB176" t="inlineStr">
         <is>
           <t>['a chair with a black chair in a room ', 'a bed with a blanket and a chair ']</t>
         </is>
@@ -17571,10 +17041,7 @@
           <t>I have photographed everything that is important to me and does me good</t>
         </is>
       </c>
-      <c r="AB177" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC177" t="inlineStr">
+      <c r="AB177" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -17670,10 +17137,7 @@
           <t>My morning ritual</t>
         </is>
       </c>
-      <c r="AB178" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC178" t="inlineStr">
+      <c r="AB178" t="inlineStr">
         <is>
           <t>['a coffee cup and a book on a table ', 'a book with a lot of books on it ', 'a bottle of water sitting on top of a table ', 'a cup of coffee sitting on a table ', 'a drawing of a knife and a paper ', 'a jar of honey on a table ', 'a magazine with a picture of a person sitting on a bench ', 'a man holding a newspaper with a picture of a woman ', 'a small plastic cup with a fake elephant inside ', 'a table with a toothbrush and a bottle ']</t>
         </is>
@@ -17769,10 +17233,7 @@
           <t>...fights, has already lost"</t>
         </is>
       </c>
-      <c r="AB179" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC179" t="inlineStr">
+      <c r="AB179" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -17864,10 +17325,7 @@
         </is>
       </c>
       <c r="AA180" t="inlineStr"/>
-      <c r="AB180" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC180" t="inlineStr">
+      <c r="AB180" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -17959,10 +17417,7 @@
         </is>
       </c>
       <c r="AA181" t="inlineStr"/>
-      <c r="AB181" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC181" t="inlineStr">
+      <c r="AB181" t="inlineStr">
         <is>
           <t>['a fence with a fence and a building ', 'a small tree with a green plant in it ']</t>
         </is>
@@ -18054,10 +17509,7 @@
         </is>
       </c>
       <c r="AA182" t="inlineStr"/>
-      <c r="AB182" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC182" t="inlineStr">
+      <c r="AB182" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -18153,10 +17605,7 @@
           <t>Traffic lights too short; fear</t>
         </is>
       </c>
-      <c r="AB183" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC183" t="inlineStr">
+      <c r="AB183" t="inlineStr">
         <is>
           <t>['a red truck is parked on the side of the road ', 'a car parked in a parking lot next to a blue car ', 'a red truck is parked on the side of the road ', 'a white truck is driving down a street ']</t>
         </is>
@@ -18248,10 +17697,7 @@
         </is>
       </c>
       <c r="AA184" t="inlineStr"/>
-      <c r="AB184" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC184" t="inlineStr">
+      <c r="AB184" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -18343,10 +17789,7 @@
         </is>
       </c>
       <c r="AA185" t="inlineStr"/>
-      <c r="AB185" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC185" t="inlineStr">
+      <c r="AB185" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -18438,10 +17881,7 @@
         </is>
       </c>
       <c r="AA186" t="inlineStr"/>
-      <c r="AB186" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC186" t="inlineStr">
+      <c r="AB186" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -18537,10 +17977,7 @@
           <t>hanging on to old times</t>
         </is>
       </c>
-      <c r="AB187" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC187" t="inlineStr">
+      <c r="AB187" t="inlineStr">
         <is>
           <t>['a computer screen with a picture of a man on it ', 'a black and white photo of smoke coming out of an airplane ']</t>
         </is>
@@ -18632,10 +18069,7 @@
         </is>
       </c>
       <c r="AA188" t="inlineStr"/>
-      <c r="AB188" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC188" t="inlineStr">
+      <c r="AB188" t="inlineStr">
         <is>
           <t>['a green and white bus is parked on the side of the road ', 'a blurry photo of a window with a reflection of a water fountain ', 'a bus is driving down the street ', 'a bus is parked on the side of the road ', 'a bus with a picture of a man on it ', 'a cluttered room with a lot of clutter ', 'a view from a window of a building ']</t>
         </is>
@@ -18727,10 +18161,7 @@
         </is>
       </c>
       <c r="AA189" t="inlineStr"/>
-      <c r="AB189" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC189" t="inlineStr">
+      <c r="AB189" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -18822,10 +18253,7 @@
         </is>
       </c>
       <c r="AA190" t="inlineStr"/>
-      <c r="AB190" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC190" t="inlineStr">
+      <c r="AB190" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -18917,10 +18345,7 @@
         </is>
       </c>
       <c r="AA191" t="inlineStr"/>
-      <c r="AB191" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC191" t="inlineStr">
+      <c r="AB191" t="inlineStr">
         <is>
           <t>['a street scene with a bus and a man walking ', 'a black and white photo of a black and white cat ', 'a black and white photo of a group of birds ', 'a car is driving down the street ', 'a car is parked in a parking lot ', 'a city bus is driving down the street ', 'a living room with a couch and a chair ', 'a person holding a tennis racket ', 'a person standing in front of a window with a flower in it ', 'a red car parked in front of a building ', 'a white truck with a blue stripe on the side of it ']</t>
         </is>
@@ -19012,10 +18437,7 @@
         </is>
       </c>
       <c r="AA192" t="inlineStr"/>
-      <c r="AB192" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC192" t="inlineStr">
+      <c r="AB192" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -19107,10 +18529,7 @@
         </is>
       </c>
       <c r="AA193" t="inlineStr"/>
-      <c r="AB193" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC193" t="inlineStr">
+      <c r="AB193" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -19202,10 +18621,7 @@
         </is>
       </c>
       <c r="AA194" t="inlineStr"/>
-      <c r="AB194" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC194" t="inlineStr">
+      <c r="AB194" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -19297,10 +18713,7 @@
         </is>
       </c>
       <c r="AA195" t="inlineStr"/>
-      <c r="AB195" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC195" t="inlineStr">
+      <c r="AB195" t="inlineStr">
         <is>
           <t>['a white chair sitting in front of a sign ', 'a sign that says "no parking" on a sidewalk ', 'a white chair sitting in front of a wall ']</t>
         </is>
@@ -19392,10 +18805,7 @@
         </is>
       </c>
       <c r="AA196" t="inlineStr"/>
-      <c r="AB196" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC196" t="inlineStr">
+      <c r="AB196" t="inlineStr">
         <is>
           <t>['a woman sitting on a bike outside a shop ', 'a bike parked next to a window with a bunch of bikes ', 'a blurry photo of a person holding a camera ', 'a man in a black shirt and sunglasses ', 'a man riding a motorcycle on a dirt road ', 'a motorcycle is parked on the street ', 'a row of bicycles are parked in a row ', 'a woman is holding a bottle of wine ', 'a woman is using a cell phone while sitting down ']</t>
         </is>
@@ -19487,10 +18897,7 @@
         </is>
       </c>
       <c r="AA197" t="inlineStr"/>
-      <c r="AB197" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC197" t="inlineStr">
+      <c r="AB197" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -19582,10 +18989,7 @@
         </is>
       </c>
       <c r="AA198" t="inlineStr"/>
-      <c r="AB198" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC198" t="inlineStr">
+      <c r="AB198" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -19677,10 +19081,7 @@
         </is>
       </c>
       <c r="AA199" t="inlineStr"/>
-      <c r="AB199" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC199" t="inlineStr">
+      <c r="AB199" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -19776,10 +19177,7 @@
           <t>Enjoy nature (flowers) as far as possible; coping</t>
         </is>
       </c>
-      <c r="AB200" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC200" t="inlineStr">
+      <c r="AB200" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -19871,10 +19269,7 @@
         </is>
       </c>
       <c r="AA201" t="inlineStr"/>
-      <c r="AB201" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC201" t="inlineStr">
+      <c r="AB201" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -19966,10 +19361,7 @@
         </is>
       </c>
       <c r="AA202" t="inlineStr"/>
-      <c r="AB202" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC202" t="inlineStr">
+      <c r="AB202" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -20061,10 +19453,7 @@
         </is>
       </c>
       <c r="AA203" t="inlineStr"/>
-      <c r="AB203" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC203" t="inlineStr">
+      <c r="AB203" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -20160,10 +19549,7 @@
           <t>Parties on the forecourt</t>
         </is>
       </c>
-      <c r="AB204" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC204" t="inlineStr">
+      <c r="AB204" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -20255,10 +19641,7 @@
         </is>
       </c>
       <c r="AA205" t="inlineStr"/>
-      <c r="AB205" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC205" t="inlineStr">
+      <c r="AB205" t="inlineStr">
         <is>
           <t>['a bed room with a white bedspread and a white wall ', 'a collection of colorful crochet items on a table ', 'a table with a white cloth on it ']</t>
         </is>
@@ -20350,10 +19733,7 @@
         </is>
       </c>
       <c r="AA206" t="inlineStr"/>
-      <c r="AB206" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC206" t="inlineStr">
+      <c r="AB206" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -20445,10 +19825,7 @@
         </is>
       </c>
       <c r="AA207" t="inlineStr"/>
-      <c r="AB207" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC207" t="inlineStr">
+      <c r="AB207" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -20540,10 +19917,7 @@
         </is>
       </c>
       <c r="AA208" t="inlineStr"/>
-      <c r="AB208" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC208" t="inlineStr">
+      <c r="AB208" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -20635,10 +20009,7 @@
         </is>
       </c>
       <c r="AA209" t="inlineStr"/>
-      <c r="AB209" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC209" t="inlineStr">
+      <c r="AB209" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -20734,10 +20105,7 @@
           <t>Traditionen</t>
         </is>
       </c>
-      <c r="AB210" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC210" t="inlineStr">
+      <c r="AB210" t="inlineStr">
         <is>
           <t>['a dog walking down a street next to a sidewalk ', 'a dog walking down a street with a person ']</t>
         </is>
@@ -20829,10 +20197,7 @@
         </is>
       </c>
       <c r="AA211" t="inlineStr"/>
-      <c r="AB211" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC211" t="inlineStr">
+      <c r="AB211" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -20924,10 +20289,7 @@
         </is>
       </c>
       <c r="AA212" t="inlineStr"/>
-      <c r="AB212" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC212" t="inlineStr">
+      <c r="AB212" t="inlineStr">
         <is>
           <t>['a wooden bench sitting in a grassy area ', 'a wooden bench sitting in a grassy field ']</t>
         </is>
@@ -21019,10 +20381,7 @@
         </is>
       </c>
       <c r="AA213" t="inlineStr"/>
-      <c r="AB213" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC213" t="inlineStr">
+      <c r="AB213" t="inlineStr">
         <is>
           <t>['a bicycle with a wheel and a bicycle seat ', 'a bicycle with a remote control attached to it ']</t>
         </is>
@@ -21114,10 +20473,7 @@
         </is>
       </c>
       <c r="AA214" t="inlineStr"/>
-      <c r="AB214" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC214" t="inlineStr">
+      <c r="AB214" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -21205,10 +20561,7 @@
       </c>
       <c r="Z215" t="inlineStr"/>
       <c r="AA215" t="inlineStr"/>
-      <c r="AB215" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC215" t="inlineStr">
+      <c r="AB215" t="inlineStr">
         <is>
           <t>['a chair with a blue and white stripe on it ']</t>
         </is>
@@ -21300,10 +20653,7 @@
         </is>
       </c>
       <c r="AA216" t="inlineStr"/>
-      <c r="AB216" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC216" t="inlineStr">
+      <c r="AB216" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -21395,10 +20745,7 @@
         </is>
       </c>
       <c r="AA217" t="inlineStr"/>
-      <c r="AB217" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC217" t="inlineStr">
+      <c r="AB217" t="inlineStr">
         <is>
           <t>['a row of wooden benches sitting on top of a beach ', 'a small wooden bench in the middle of a street ']</t>
         </is>
@@ -21490,10 +20837,7 @@
         </is>
       </c>
       <c r="AA218" t="inlineStr"/>
-      <c r="AB218" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC218" t="inlineStr">
+      <c r="AB218" t="inlineStr">
         <is>
           <t>['a garden with a lawn chair and a patio ', 'a fire hydrant is sitting in the middle of a garden ', 'a garden with a fence and a plant ', 'a green lawn chair sitting on top of a lawn chair ', 'a plant in a garden with a fence ', 'a plant that is growing in a pot ', 'a plant that is in a pot on a table ', 'a pot of flowers sitting on a ledge ', 'a pot of flowers sitting on a table ', 'a pot of plants in a garden ', 'a pottery pottery potter with a flower in it ']</t>
         </is>
@@ -21585,10 +20929,7 @@
         </is>
       </c>
       <c r="AA219" t="inlineStr"/>
-      <c r="AB219" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC219" t="inlineStr">
+      <c r="AB219" t="inlineStr">
         <is>
           <t>['a small desk with a computer and a small bed ', 'a bed with a bag of tissues and a bottle of water ', 'a bed with a white blanket and a white pillow ']</t>
         </is>
@@ -21680,10 +21021,7 @@
         </is>
       </c>
       <c r="AA220" t="inlineStr"/>
-      <c r="AB220" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC220" t="inlineStr">
+      <c r="AB220" t="inlineStr">
         <is>
           <t>['a person holding a piece of paper with a sandwich in it ', 'a person holding a hand with a hand held object ', 'a person holding a piece of bread with a knife ']</t>
         </is>
@@ -21771,10 +21109,7 @@
       </c>
       <c r="Z221" t="inlineStr"/>
       <c r="AA221" t="inlineStr"/>
-      <c r="AB221" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC221" t="inlineStr">
+      <c r="AB221" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -21866,10 +21201,7 @@
         </is>
       </c>
       <c r="AA222" t="inlineStr"/>
-      <c r="AB222" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC222" t="inlineStr">
+      <c r="AB222" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -21961,10 +21293,7 @@
         </is>
       </c>
       <c r="AA223" t="inlineStr"/>
-      <c r="AB223" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC223" t="inlineStr">
+      <c r="AB223" t="inlineStr">
         <is>
           <t>['a cake with a picture of a cat on it ', 'a cupcake with a flower on top of it ', 'a plate with a cake on it and a cup ']</t>
         </is>
@@ -22056,10 +21385,7 @@
         </is>
       </c>
       <c r="AA224" t="inlineStr"/>
-      <c r="AB224" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC224" t="inlineStr">
+      <c r="AB224" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -22151,10 +21477,7 @@
         </is>
       </c>
       <c r="AA225" t="inlineStr"/>
-      <c r="AB225" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC225" t="inlineStr">
+      <c r="AB225" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -22246,10 +21569,7 @@
         </is>
       </c>
       <c r="AA226" t="inlineStr"/>
-      <c r="AB226" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC226" t="inlineStr">
+      <c r="AB226" t="inlineStr">
         <is>
           <t>['a door is open to a building with a bench ', 'a person standing in front of a window ', 'a white bench with a black chair and a white wall ', 'a white bench with a white stripe on it ', 'a window with a painting of a person sitting on it ']</t>
         </is>
@@ -22341,10 +21661,7 @@
         </is>
       </c>
       <c r="AA227" t="inlineStr"/>
-      <c r="AB227" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC227" t="inlineStr">
+      <c r="AB227" t="inlineStr">
         <is>
           <t>['a boat is docked at a dock with a group of people ', "a black cat is sitting on a person's shoulder ", 'a boat with people on it is docked ', 'a large boat is docked in the water ', 'a man and woman sitting on a couch ', 'a man holding a nintendo wii game controller ', 'a man in a helmet and a black and white shirt on a motor bike ', 'a man sitting on a bus with a black hat on ', 'a man sitting on a ledge with a cat ', 'a person is looking at a black suitcase ', 'a person sitting on a chair with a remote ', 'a white truck with a blue and white van ', 'a woman is laying down on the floor ', 'a woman sitting on a beach holding a cell phone ', 'a woman sitting on a chair next to a man ', 'two men talking on their cell phones ']</t>
         </is>
@@ -22436,10 +21753,7 @@
         </is>
       </c>
       <c r="AA228" t="inlineStr"/>
-      <c r="AB228" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC228" t="inlineStr">
+      <c r="AB228" t="inlineStr">
         <is>
           <t>['a painting of a woman holding a book ']</t>
         </is>
@@ -22531,10 +21845,7 @@
         </is>
       </c>
       <c r="AA229" t="inlineStr"/>
-      <c r="AB229" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC229" t="inlineStr">
+      <c r="AB229" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -22626,10 +21937,7 @@
         </is>
       </c>
       <c r="AA230" t="inlineStr"/>
-      <c r="AB230" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC230" t="inlineStr">
+      <c r="AB230" t="inlineStr">
         <is>
           <t>['a man wearing a white shirt and black pants ', 'a man in a black shirt and a white shirt ', 'a man in a white shirt and black shorts ', 'a person in a black jacket and goggles is holding an umbrella ', 'a series of photos of a skier performing a trick ', 'a woman laying on a bed with a blue blanket ']</t>
         </is>
@@ -22721,10 +22029,7 @@
         </is>
       </c>
       <c r="AA231" t="inlineStr"/>
-      <c r="AB231" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC231" t="inlineStr">
+      <c r="AB231" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -22816,10 +22121,7 @@
         </is>
       </c>
       <c r="AA232" t="inlineStr"/>
-      <c r="AB232" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC232" t="inlineStr">
+      <c r="AB232" t="inlineStr">
         <is>
           <t>['a crowd of people standing around a room ', 'a man and woman are playing a video game ', 'a man and woman playing a game with a remote controller ', 'a man in a red shirt and a blue shirt ', 'a woman and a man playing a game of tennis ', 'a woman holding a tennis racquet in her hand ', 'a woman holding a wii remote in her hand ', 'a woman is holding a remote control ', 'a woman is playing a game with a remote ', 'a woman is standing next to a man in a dress ', 'a woman sitting on a couch with a man ', 'a young girl is holding a skateboard ']</t>
         </is>
@@ -22911,10 +22213,7 @@
         </is>
       </c>
       <c r="AA233" t="inlineStr"/>
-      <c r="AB233" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC233" t="inlineStr">
+      <c r="AB233" t="inlineStr">
         <is>
           <t>['a dog sitting on a couch with a leash ', 'a dog sitting in a car seat with a leash ']</t>
         </is>
@@ -23006,10 +22305,7 @@
         </is>
       </c>
       <c r="AA234" t="inlineStr"/>
-      <c r="AB234" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC234" t="inlineStr">
+      <c r="AB234" t="inlineStr">
         <is>
           <t>['a clock with a picture of a dog on it ', 'a clock with a picture of a dog on it ', 'a large metal clock with a face painted on it ']</t>
         </is>
@@ -23105,10 +22401,7 @@
           <t>Global political situation as an environmental variable</t>
         </is>
       </c>
-      <c r="AB235" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC235" t="inlineStr">
+      <c r="AB235" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -23204,10 +22497,7 @@
           <t>Global political situation as an environmental variable</t>
         </is>
       </c>
-      <c r="AB236" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC236" t="inlineStr">
+      <c r="AB236" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -23299,10 +22589,7 @@
         </is>
       </c>
       <c r="AA237" t="inlineStr"/>
-      <c r="AB237" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC237" t="inlineStr">
+      <c r="AB237" t="inlineStr">
         <is>
           <t>['two people sitting on a bench in front of a tree ', 'a man in a suit looking at a tree ', 'a man sitting on a bench in front of a tree ', 'a man sitting on a bench looking at the camera ', 'a man sitting on a bench with a wooden bench ', 'a person is holding a cell phone in their hand ', 'a person sitting on a bench with a black and white background ', 'a woman is standing on a bench with a wooden fence ']</t>
         </is>
@@ -23394,10 +22681,7 @@
         </is>
       </c>
       <c r="AA238" t="inlineStr"/>
-      <c r="AB238" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC238" t="inlineStr">
+      <c r="AB238" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -23489,10 +22773,7 @@
         </is>
       </c>
       <c r="AA239" t="inlineStr"/>
-      <c r="AB239" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC239" t="inlineStr">
+      <c r="AB239" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -23584,10 +22865,7 @@
         </is>
       </c>
       <c r="AA240" t="inlineStr"/>
-      <c r="AB240" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC240" t="inlineStr">
+      <c r="AB240" t="inlineStr">
         <is>
           <t>['two people sitting on a wooden bench ', 'a man and woman sitting on a bench ', 'a man sitting on a bench with a book ', 'two people sitting on a bench ']</t>
         </is>
@@ -23679,10 +22957,7 @@
         </is>
       </c>
       <c r="AA241" t="inlineStr"/>
-      <c r="AB241" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC241" t="inlineStr">
+      <c r="AB241" t="inlineStr">
         <is>
           <t>['a man with a beard and a mustache ', 'a man with a beard and a black eye ']</t>
         </is>
@@ -23774,10 +23049,7 @@
         </is>
       </c>
       <c r="AA242" t="inlineStr"/>
-      <c r="AB242" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC242" t="inlineStr">
+      <c r="AB242" t="inlineStr">
         <is>
           <t>['a painting of a person holding a sign ', 'a man is playing tennis on a court ']</t>
         </is>
@@ -23869,10 +23141,7 @@
         </is>
       </c>
       <c r="AA243" t="inlineStr"/>
-      <c r="AB243" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC243" t="inlineStr">
+      <c r="AB243" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -23964,10 +23233,7 @@
         </is>
       </c>
       <c r="AA244" t="inlineStr"/>
-      <c r="AB244" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC244" t="inlineStr">
+      <c r="AB244" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -24063,10 +23329,7 @@
           <t>Spirituality?</t>
         </is>
       </c>
-      <c r="AB245" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC245" t="inlineStr">
+      <c r="AB245" t="inlineStr">
         <is>
           <t>['a building with a large window and a clock on it ']</t>
         </is>
@@ -24158,10 +23421,7 @@
         </is>
       </c>
       <c r="AA246" t="inlineStr"/>
-      <c r="AB246" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC246" t="inlineStr">
+      <c r="AB246" t="inlineStr">
         <is>
           <t>['a blue sign is on a blue pole ']</t>
         </is>
@@ -24249,10 +23509,7 @@
       </c>
       <c r="Z247" t="inlineStr"/>
       <c r="AA247" t="inlineStr"/>
-      <c r="AB247" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC247" t="inlineStr">
+      <c r="AB247" t="inlineStr">
         <is>
           <t>['a table with a sign and a bottle of wine ', 'a bottle of water sitting on top of a table ', 'a cat standing in front of a bunch of bananas ', 'a glass bottle with a person holding it ', 'a glass of wine is being poured into a glass ', 'a glass of wine sitting on a table ', 'a glass of wine sitting on top of a table ', 'a man is cutting a cake at a party ', 'a person holding a cell phone in their hand ', 'a person pouring a glass of wine into a bottle ', 'a red and white sign with a red ribbon ', 'a toilet with a cat sitting on top of it ']</t>
         </is>
@@ -24344,10 +23601,7 @@
         </is>
       </c>
       <c r="AA248" t="inlineStr"/>
-      <c r="AB248" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC248" t="inlineStr">
+      <c r="AB248" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -24439,10 +23693,7 @@
         </is>
       </c>
       <c r="AA249" t="inlineStr"/>
-      <c r="AB249" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC249" t="inlineStr">
+      <c r="AB249" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -24534,10 +23785,7 @@
         </is>
       </c>
       <c r="AA250" t="inlineStr"/>
-      <c r="AB250" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC250" t="inlineStr">
+      <c r="AB250" t="inlineStr">
         <is>
           <t>['a view from a boat of a lake ']</t>
         </is>
@@ -24629,10 +23877,7 @@
         </is>
       </c>
       <c r="AA251" t="inlineStr"/>
-      <c r="AB251" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC251" t="inlineStr">
+      <c r="AB251" t="inlineStr">
         <is>
           <t>['a painting of a person holding a guitar ', 'a collage of photos of people in a room ']</t>
         </is>
@@ -24724,10 +23969,7 @@
         </is>
       </c>
       <c r="AA252" t="inlineStr"/>
-      <c r="AB252" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC252" t="inlineStr">
+      <c r="AB252" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -24819,10 +24061,7 @@
         </is>
       </c>
       <c r="AA253" t="inlineStr"/>
-      <c r="AB253" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC253" t="inlineStr">
+      <c r="AB253" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -24914,10 +24153,7 @@
         </is>
       </c>
       <c r="AA254" t="inlineStr"/>
-      <c r="AB254" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC254" t="inlineStr">
+      <c r="AB254" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -25009,10 +24245,7 @@
         </is>
       </c>
       <c r="AA255" t="inlineStr"/>
-      <c r="AB255" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC255" t="inlineStr">
+      <c r="AB255" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -25108,10 +24341,7 @@
           <t>Poems</t>
         </is>
       </c>
-      <c r="AB256" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC256" t="inlineStr">
+      <c r="AB256" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -25207,10 +24437,7 @@
           <t>demanding literature, therefore further education and culture</t>
         </is>
       </c>
-      <c r="AB257" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC257" t="inlineStr">
+      <c r="AB257" t="inlineStr">
         <is>
           <t>['a book shelf with a bunch of books ', 'a book shelf with a bunch of books ']</t>
         </is>
@@ -25302,10 +24529,7 @@
         </is>
       </c>
       <c r="AA258" t="inlineStr"/>
-      <c r="AB258" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC258" t="inlineStr">
+      <c r="AB258" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -25397,10 +24621,7 @@
         </is>
       </c>
       <c r="AA259" t="inlineStr"/>
-      <c r="AB259" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC259" t="inlineStr">
+      <c r="AB259" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -25492,10 +24713,7 @@
         </is>
       </c>
       <c r="AA260" t="inlineStr"/>
-      <c r="AB260" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC260" t="inlineStr">
+      <c r="AB260" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -25587,10 +24805,7 @@
         </is>
       </c>
       <c r="AA261" t="inlineStr"/>
-      <c r="AB261" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC261" t="inlineStr">
+      <c r="AB261" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -25682,10 +24897,7 @@
         </is>
       </c>
       <c r="AA262" t="inlineStr"/>
-      <c r="AB262" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC262" t="inlineStr">
+      <c r="AB262" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -25777,10 +24989,7 @@
         </is>
       </c>
       <c r="AA263" t="inlineStr"/>
-      <c r="AB263" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC263" t="inlineStr">
+      <c r="AB263" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -25872,10 +25081,7 @@
         </is>
       </c>
       <c r="AA264" t="inlineStr"/>
-      <c r="AB264" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC264" t="inlineStr">
+      <c r="AB264" t="inlineStr">
         <is>
           <t>['a book shelf filled with books and a large mirror ', 'a baseball player is standing in the grass ', 'a black and white photo of a computer screen ', 'a blue and white photo of a blue and white train ', 'a blue and white striped piece of paper ', 'a blue and white striped tie sitting on a table ', 'a blurry photo of a blurry photo of a blurry photo ', 'a blurry photo of a blurry picture of a blurry picture ', 'a blurry photo of a blurry view of a building ', 'a blurry photo of a brick wall with a brick wall ', 'a blurry photo of a person holding a camera ', 'a blurry photo of a person in a red jacket ', 'a blurry photo of a person on a cell phone ', 'a blurry photo of a person on a sidewalk ', 'a blurry photo of a person with a black and white background ', 'a blurry photo of a person with a cell phone ', "a blurry photo of a person's feet and shoes ", 'a blurry photo of a street scene with a building ', 'a blurry photo of a train on a train track ', 'a blurry photo of a window with a book ', 'a blurry photo of a window with a reflection of a person ', 'a blurry picture of a person on a cell phone ', 'a book is sitting on a shelf in front of a sign ', 'a book is sitting on a table ', 'a book on a book shelf with a remote ', 'a book shelf filled with books and a book ', 'a book shelf filled with books and a box ', 'a book shelf filled with books and a computer ', 'a book shelf filled with books and a pair of scissors ', 'a book shelf filled with books and a stack of books ', 'a book shelf with a book and a pair of scissors ', 'a book shelf with a computer monitor and a book ', 'a book shelf with a computer screen and a book ', 'a book shelf with books and a computer ', 'a book shelf with books and a television ', 'a book with a book cover on it ', 'a book with a bunch of books on it ', 'a book with a picture of a cat on it ', 'a book with a picture of a person ', 'a book with a picture of a person on it ', 'a book with a remote control on top of it ', 'a box of paper with a piece of paper in it ', 'a close up of a close up of a cup ', 'a close up of a picture of a book ', 'a collection of colorful and colorful items on a table ', 'a collection of photos of a woman holding a bottle ', 'a collection of small scissors sitting on top of a table ', 'a computer screen with a computer on it ', 'a computer screen with a keyboard and a book ', 'a computer screen with a picture of a person ', 'a computer screen with a picture of a person on it ', 'a glass case filled with lots of different colored glasses ', 'a keyboard and a mouse on a table ', 'a large building with a bunch of wires hanging from it ', 'a number of colorful kites in a blue and white pattern ', 'a pair of black and white checkered plastic gloves ', 'a pair of scissors are hanging from a wall ', 'a pair of scissors sitting on top of a carpet ', 'a patterned blanket with a patterned cloth ', 'a person standing in front of a window ', 'a person standing on a floor with a skateboard ', 'a pile of books on a table ', 'a pile of books on top of a table ', 'a pile of books on top of each other ', 'a pile of different colored towels sitting on top of a table ', 'a red and white cup sitting next to a red and white bowl ', 'a red and white fire hydrant with a red ribbon around it ', 'a red and white truck with a sticker on it ', 'a row of red and white boxes on a table ', 'a sign that says "don\'t miss" ', 'a small computer is sitting on a table ', 'a stack of books on a shelf ', 'a stack of books with a picture of a cat on them ', 'a stack of books with different colors ', 'a wall with a picture of a person and a phone ', 'a wall with a picture of a person in it ', 'a white and black photo of a white and black ', 'a white and black striped rug with a black and white background ', 'a white box with a white sheet on it ', 'a white refrigerator with a picture of a man ', 'a white refrigerator with a picture of a person ', 'a window with a black and white background ', 'a window with a bunch of clothes hanging from it ', 'a window with a picture of a person ', 'a window with a picture of a person in it ', 'a wooden table topped with a box of cookies ', 'a wooden table with a book on it ', 'a worn out old fashioned fire hydrant ']</t>
         </is>
@@ -25967,10 +25173,7 @@
         </is>
       </c>
       <c r="AA265" t="inlineStr"/>
-      <c r="AB265" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC265" t="inlineStr">
+      <c r="AB265" t="inlineStr">
         <is>
           <t>['a dining room table with chairs and a table cloth ', 'a chair and a table in a room ', 'a chair with a black chair cushion and a blue chair ', 'a chair with a black chair mat on it ', 'a chair with a remote control in it ', 'a chair with a wooden seat and a wooden chair ', 'a row of chairs sitting in front of a window ', 'a table with a chair and a table cloth ', 'a table with a vase of flowers and a vase of flowers on a table cloth ', 'a wooden chair with a black chair cushion ']</t>
         </is>
@@ -26062,10 +25265,7 @@
         </is>
       </c>
       <c r="AA266" t="inlineStr"/>
-      <c r="AB266" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC266" t="inlineStr">
+      <c r="AB266" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -26157,10 +25357,7 @@
         </is>
       </c>
       <c r="AA267" t="inlineStr"/>
-      <c r="AB267" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC267" t="inlineStr">
+      <c r="AB267" t="inlineStr">
         <is>
           <t>['a chair with a blue cushion on it ', 'a chair with a blue and white striped fabric ', 'a chair with a pink cushion and a blue chair ', 'a small chair with a blue and white striped fabric ']</t>
         </is>
@@ -26252,10 +25449,7 @@
         </is>
       </c>
       <c r="AA268" t="inlineStr"/>
-      <c r="AB268" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC268" t="inlineStr">
+      <c r="AB268" t="inlineStr">
         <is>
           <t>['a dining room table with chairs and a red carpet ', 'a chair in a room with a table and chairs ', 'a chair with a red chair cushion and a black chair ', 'a chair with a red cushion on it ', 'a chair with a red seat cover ', 'a chair with a red seat cushion on a table ', 'a chair with a wooden seat and a wooden table ', 'a glass bowl with a knife in it ', 'a glass table with a vase of flowers on it ', 'a glass vase with flowers in it ', "a person's head is reflected in a mirror ", 'a red chair with a red flower arrangement ', 'a red chair with a red handle and a red chair with a red chair ', 'a red chair with a red seat cover ', 'a red couch with a red blanket next to a red chair ', 'a red couch with a red chair and red shoes ', 'a table with a glass of wine and a candle ', 'a table with a glass of wine and a red table cloth ', 'a table with a glass of wine and a table cloth ', 'a table with a glass table cloth and a vase with flowers ', 'a table with chairs and a table cloth ', 'a vase with flowers on a table ']</t>
         </is>
@@ -26347,10 +25541,7 @@
         </is>
       </c>
       <c r="AA269" t="inlineStr"/>
-      <c r="AB269" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC269" t="inlineStr">
+      <c r="AB269" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -26442,10 +25633,7 @@
         </is>
       </c>
       <c r="AA270" t="inlineStr"/>
-      <c r="AB270" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC270" t="inlineStr">
+      <c r="AB270" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -26537,10 +25725,7 @@
         </is>
       </c>
       <c r="AA271" t="inlineStr"/>
-      <c r="AB271" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC271" t="inlineStr">
+      <c r="AB271" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -26632,10 +25817,7 @@
         </is>
       </c>
       <c r="AA272" t="inlineStr"/>
-      <c r="AB272" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC272" t="inlineStr">
+      <c r="AB272" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -26727,10 +25909,7 @@
         </is>
       </c>
       <c r="AA273" t="inlineStr"/>
-      <c r="AB273" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC273" t="inlineStr">
+      <c r="AB273" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -26822,10 +26001,7 @@
         </is>
       </c>
       <c r="AA274" t="inlineStr"/>
-      <c r="AB274" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC274" t="inlineStr">
+      <c r="AB274" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -26917,10 +26093,7 @@
         </is>
       </c>
       <c r="AA275" t="inlineStr"/>
-      <c r="AB275" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC275" t="inlineStr">
+      <c r="AB275" t="inlineStr">
         <is>
           <t>['a bath tub with a white towel on top of it ']</t>
         </is>
@@ -27012,10 +26185,7 @@
         </is>
       </c>
       <c r="AA276" t="inlineStr"/>
-      <c r="AB276" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC276" t="inlineStr">
+      <c r="AB276" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -27107,10 +26277,7 @@
         </is>
       </c>
       <c r="AA277" t="inlineStr"/>
-      <c r="AB277" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC277" t="inlineStr">
+      <c r="AB277" t="inlineStr">
         <is>
           <t>['two shoes are on the ground next to a brick wall ', 'a worn out old shoe sits on the ground ']</t>
         </is>
@@ -27202,10 +26369,7 @@
         </is>
       </c>
       <c r="AA278" t="inlineStr"/>
-      <c r="AB278" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC278" t="inlineStr">
+      <c r="AB278" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -27297,10 +26461,7 @@
         </is>
       </c>
       <c r="AA279" t="inlineStr"/>
-      <c r="AB279" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC279" t="inlineStr">
+      <c r="AB279" t="inlineStr">
         <is>
           <t>['a wheeled cart with a metal handle on a brick floor ']</t>
         </is>
@@ -27392,10 +26553,7 @@
         </is>
       </c>
       <c r="AA280" t="inlineStr"/>
-      <c r="AB280" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC280" t="inlineStr">
+      <c r="AB280" t="inlineStr">
         <is>
           <t>['a street sign that says "no parking" ']</t>
         </is>
@@ -27487,10 +26645,7 @@
         </is>
       </c>
       <c r="AA281" t="inlineStr"/>
-      <c r="AB281" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC281" t="inlineStr">
+      <c r="AB281" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -27582,10 +26737,7 @@
         </is>
       </c>
       <c r="AA282" t="inlineStr"/>
-      <c r="AB282" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC282" t="inlineStr">
+      <c r="AB282" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -27677,10 +26829,7 @@
         </is>
       </c>
       <c r="AA283" t="inlineStr"/>
-      <c r="AB283" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC283" t="inlineStr">
+      <c r="AB283" t="inlineStr">
         <is>
           <t>['a sign that says "the street" on a wall ']</t>
         </is>
@@ -27772,10 +26921,7 @@
         </is>
       </c>
       <c r="AA284" t="inlineStr"/>
-      <c r="AB284" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC284" t="inlineStr">
+      <c r="AB284" t="inlineStr">
         <is>
           <t>['a fire burning in the middle of a room with a fire place ']</t>
         </is>
@@ -27867,10 +27013,7 @@
         </is>
       </c>
       <c r="AA285" t="inlineStr"/>
-      <c r="AB285" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC285" t="inlineStr">
+      <c r="AB285" t="inlineStr">
         <is>
           <t>['a wooden log sitting on top of a pile of hay ']</t>
         </is>
@@ -27962,10 +27105,7 @@
         </is>
       </c>
       <c r="AA286" t="inlineStr"/>
-      <c r="AB286" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC286" t="inlineStr">
+      <c r="AB286" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -28057,10 +27197,7 @@
         </is>
       </c>
       <c r="AA287" t="inlineStr"/>
-      <c r="AB287" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC287" t="inlineStr">
+      <c r="AB287" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -28152,10 +27289,7 @@
         </is>
       </c>
       <c r="AA288" t="inlineStr"/>
-      <c r="AB288" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC288" t="inlineStr">
+      <c r="AB288" t="inlineStr">
         <is>
           <t>['a large stone monument with a tree ']</t>
         </is>
@@ -28247,10 +27381,7 @@
         </is>
       </c>
       <c r="AA289" t="inlineStr"/>
-      <c r="AB289" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC289" t="inlineStr">
+      <c r="AB289" t="inlineStr">
         <is>
           <t>['a cat laying on a couch with its head on a pillow ', 'a cat laying on a brick wall ', 'a cat laying on a couch with its eyes closed ']</t>
         </is>
@@ -28346,10 +27477,7 @@
           <t>Once the children have left home, a pet is needed</t>
         </is>
       </c>
-      <c r="AB290" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC290" t="inlineStr">
+      <c r="AB290" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -28441,10 +27569,7 @@
         </is>
       </c>
       <c r="AA291" t="inlineStr"/>
-      <c r="AB291" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC291" t="inlineStr">
+      <c r="AB291" t="inlineStr">
         <is>
           <t>['a clock on a wall with a picture of a dog on it ', 'a clock on a wall with a picture of a dog on it ']</t>
         </is>
@@ -28536,10 +27661,7 @@
         </is>
       </c>
       <c r="AA292" t="inlineStr"/>
-      <c r="AB292" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC292" t="inlineStr">
+      <c r="AB292" t="inlineStr">
         <is>
           <t>['a sign that says "no parking" on a pole ', 'a red and white sign with a black and white arrow ']</t>
         </is>
@@ -28631,10 +27753,7 @@
         </is>
       </c>
       <c r="AA293" t="inlineStr"/>
-      <c r="AB293" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC293" t="inlineStr">
+      <c r="AB293" t="inlineStr">
         <is>
           <t>['a bench in a field with flowers in the back ', 'a bench in a field with flowers in it ', 'a bench is sitting in the grass ', 'a red fire hydrant in the middle of a field ']</t>
         </is>
@@ -28726,10 +27845,7 @@
         </is>
       </c>
       <c r="AA294" t="inlineStr"/>
-      <c r="AB294" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC294" t="inlineStr">
+      <c r="AB294" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -28821,10 +27937,7 @@
         </is>
       </c>
       <c r="AA295" t="inlineStr"/>
-      <c r="AB295" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC295" t="inlineStr">
+      <c r="AB295" t="inlineStr">
         <is>
           <t>['a basket of fruit sitting on a table ', 'a banana and a banana peel on a table ', 'a basket of apples and bananas on a table ', 'a basket of apples, bananas, and applesauce ', 'a basket of apples, bananas, and other fruits ', 'a basket of bananas and apples ', 'a basket of fruit with apples, bananas, and apples ', 'a large yellow and green apple with a bunch of bananas on it ', 'a pile of apples sitting on top of each other ', 'a red apple sitting on top of a wooden table ']</t>
         </is>
@@ -28916,10 +28029,7 @@
         </is>
       </c>
       <c r="AA296" t="inlineStr"/>
-      <c r="AB296" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC296" t="inlineStr">
+      <c r="AB296" t="inlineStr">
         <is>
           <t>['a chair is sitting on a patio in a yard ', 'a chair with a black umbrella on top of it ']</t>
         </is>
@@ -29011,10 +28121,7 @@
         </is>
       </c>
       <c r="AA297" t="inlineStr"/>
-      <c r="AB297" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC297" t="inlineStr">
+      <c r="AB297" t="inlineStr">
         <is>
           <t>['a crowd of people standing around a stage ', 'a blurry photo of a person with a cat ', 'a crowd of people sitting in a room ', 'a crowd of people standing around a group of cows ', 'a crowd of people standing around a stage ', 'a man is looking at a blurry image ', 'a man is looking at a blurry photo ', 'a person is in the middle of a crowd ', 'a person is looking at something in the dark ', 'a person looking at a blurry image of a person ', 'a person sitting on a wall with a black and white photo ', 'a person standing in a crowd of people ', 'a woman is standing in a dark room ']</t>
         </is>
@@ -29106,10 +28213,7 @@
         </is>
       </c>
       <c r="AA298" t="inlineStr"/>
-      <c r="AB298" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC298" t="inlineStr">
+      <c r="AB298" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -29201,10 +28305,7 @@
         </is>
       </c>
       <c r="AA299" t="inlineStr"/>
-      <c r="AB299" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC299" t="inlineStr">
+      <c r="AB299" t="inlineStr">
         <is>
           <t>['a wooden house with a wooden roof and a wooden bench ']</t>
         </is>
@@ -29296,10 +28397,7 @@
         </is>
       </c>
       <c r="AA300" t="inlineStr"/>
-      <c r="AB300" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC300" t="inlineStr">
+      <c r="AB300" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -29391,10 +28489,7 @@
         </is>
       </c>
       <c r="AA301" t="inlineStr"/>
-      <c r="AB301" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC301" t="inlineStr">
+      <c r="AB301" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -29490,10 +28585,7 @@
           <t>The closer you get to death, the more you want to believe in something</t>
         </is>
       </c>
-      <c r="AB302" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC302" t="inlineStr">
+      <c r="AB302" t="inlineStr">
         <is>
           <t>['a red brick building with a red door ', 'a pot of flowers in a pottery bowl ']</t>
         </is>
@@ -29585,10 +28677,7 @@
         </is>
       </c>
       <c r="AA303" t="inlineStr"/>
-      <c r="AB303" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC303" t="inlineStr">
+      <c r="AB303" t="inlineStr">
         <is>
           <t>['a woman is sitting on a bench on the sidewalk ', 'a person laying on a bench with a piece of wood ', 'a person laying on a bench with a stuffed animal ', 'a woman is sitting on a bench with her feet on the ground ', 'a woman sitting on a bench with a ball in her hand ', 'a wooden bench with a bunch of empty plastic cups on it ']</t>
         </is>
@@ -29680,10 +28769,7 @@
         </is>
       </c>
       <c r="AA304" t="inlineStr"/>
-      <c r="AB304" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC304" t="inlineStr">
+      <c r="AB304" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -29775,10 +28861,7 @@
         </is>
       </c>
       <c r="AA305" t="inlineStr"/>
-      <c r="AB305" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC305" t="inlineStr">
+      <c r="AB305" t="inlineStr">
         <is>
           <t>['a red barn with a clock on the top of it ']</t>
         </is>
@@ -29870,10 +28953,7 @@
         </is>
       </c>
       <c r="AA306" t="inlineStr"/>
-      <c r="AB306" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC306" t="inlineStr">
+      <c r="AB306" t="inlineStr">
         <is>
           <t>['a truck parked on the side of a road ', 'a white truck parked in a field with grass ', 'a white truck with a blue seat and a white fence ']</t>
         </is>
@@ -29965,10 +29045,7 @@
         </is>
       </c>
       <c r="AA307" t="inlineStr"/>
-      <c r="AB307" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC307" t="inlineStr">
+      <c r="AB307" t="inlineStr">
         <is>
           <t>['a clock with a face on it ', 'a clock with a face on it ']</t>
         </is>
@@ -30060,10 +29137,7 @@
         </is>
       </c>
       <c r="AA308" t="inlineStr"/>
-      <c r="AB308" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC308" t="inlineStr">
+      <c r="AB308" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -30155,10 +29229,7 @@
         </is>
       </c>
       <c r="AA309" t="inlineStr"/>
-      <c r="AB309" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC309" t="inlineStr">
+      <c r="AB309" t="inlineStr">
         <is>
           <t>['a beach with a few birds flying over it ']</t>
         </is>
@@ -30250,10 +29321,7 @@
         </is>
       </c>
       <c r="AA310" t="inlineStr"/>
-      <c r="AB310" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC310" t="inlineStr">
+      <c r="AB310" t="inlineStr">
         <is>
           <t>['people on a beach near a body of water ', 'a blurry photo of a blurry shot of a white object ', 'a blurry photo of a person standing on a sidewalk ', 'a boy walking on a beach with a bag ', 'a girl walking on the beach with a frisbee ', 'a man carrying a bag and walking with a dog ', 'a man riding a horse with a helmet on ', 'a man walking on a beach holding a skateboard ', 'a woman walking down a beach with a red shirt ', 'a woman walking down the beach with a surfboard ']</t>
         </is>
@@ -30341,10 +29409,7 @@
       </c>
       <c r="Z311" t="inlineStr"/>
       <c r="AA311" t="inlineStr"/>
-      <c r="AB311" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC311" t="inlineStr">
+      <c r="AB311" t="inlineStr">
         <is>
           <t>['two people walking down a path with a dog ', 'a black and white animal laying in the grass ', 'a man walking down a street with a bag ', 'a man walking down the street with a backpack ', 'a woman sitting on a grassy field with a laptop ', 'a woman sitting on a park bench with a man ']</t>
         </is>
@@ -30436,10 +29501,7 @@
         </is>
       </c>
       <c r="AA312" t="inlineStr"/>
-      <c r="AB312" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC312" t="inlineStr">
+      <c r="AB312" t="inlineStr">
         <is>
           <t>['a bench on a beach near the water ', 'a bench sitting on top of a beach ']</t>
         </is>
@@ -30531,10 +29593,7 @@
         </is>
       </c>
       <c r="AA313" t="inlineStr"/>
-      <c r="AB313" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC313" t="inlineStr">
+      <c r="AB313" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -30626,10 +29685,7 @@
         </is>
       </c>
       <c r="AA314" t="inlineStr"/>
-      <c r="AB314" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC314" t="inlineStr">
+      <c r="AB314" t="inlineStr">
         <is>
           <t>['a man and a woman are standing in a room ', 'a man is holding a cell phone up to his face ', 'a man is standing in front of a group of people ', 'a man is standing next to a man in a room ', 'a man standing in front of a mirror ']</t>
         </is>
@@ -30721,10 +29777,7 @@
         </is>
       </c>
       <c r="AA315" t="inlineStr"/>
-      <c r="AB315" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC315" t="inlineStr">
+      <c r="AB315" t="inlineStr">
         <is>
           <t>['a man and woman sitting down ', 'a person wearing a hat and glasses ', 'a woman sitting at a table with a laptop ']</t>
         </is>
@@ -30816,10 +29869,7 @@
         </is>
       </c>
       <c r="AA316" t="inlineStr"/>
-      <c r="AB316" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC316" t="inlineStr">
+      <c r="AB316" t="inlineStr">
         <is>
           <t>['a person walking a bicycle with a person holding a cane ', 'a man sitting on a bench with a cell phone ', 'a pair of scissors is being held by a person ', 'a person is sitting on a bicycle with a wheel ', 'a person walking on a sidewalk with a bicycle ', 'a woman in a white dress is walking down the street ', 'a woman walking down the street with a white umbrella ']</t>
         </is>
@@ -30911,10 +29961,7 @@
         </is>
       </c>
       <c r="AA317" t="inlineStr"/>
-      <c r="AB317" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC317" t="inlineStr">
+      <c r="AB317" t="inlineStr">
         <is>
           <t>['a person holding a small piece of paper ', 'a person holding a small piece of paper ']</t>
         </is>
@@ -31006,10 +30053,7 @@
         </is>
       </c>
       <c r="AA318" t="inlineStr"/>
-      <c r="AB318" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC318" t="inlineStr">
+      <c r="AB318" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -31097,10 +30141,7 @@
       </c>
       <c r="Z319" t="inlineStr"/>
       <c r="AA319" t="inlineStr"/>
-      <c r="AB319" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC319" t="inlineStr">
+      <c r="AB319" t="inlineStr">
         <is>
           <t>['a person holding a pair of hands ', 'a cat is standing in a bowl with a cat ', 'a person holding a blue and white object ', 'a person holding a hand up to a hand holding a cell phone ', 'a person holding a pair of hands on a beach ']</t>
         </is>
@@ -31192,10 +30233,7 @@
         </is>
       </c>
       <c r="AA320" t="inlineStr"/>
-      <c r="AB320" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC320" t="inlineStr">
+      <c r="AB320" t="inlineStr">
         <is>
           <t>['a teddy bear wearing a hat and a bow tie ', 'a teddy bear wearing a hat and a sweater ', 'a teddy bear wearing a red sweater and a blue sweater ']</t>
         </is>
@@ -31283,10 +30321,7 @@
       </c>
       <c r="Z321" t="inlineStr"/>
       <c r="AA321" t="inlineStr"/>
-      <c r="AB321" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC321" t="inlineStr">
+      <c r="AB321" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -31378,10 +30413,7 @@
         </is>
       </c>
       <c r="AA322" t="inlineStr"/>
-      <c r="AB322" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC322" t="inlineStr">
+      <c r="AB322" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -31473,10 +30505,7 @@
         </is>
       </c>
       <c r="AA323" t="inlineStr"/>
-      <c r="AB323" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC323" t="inlineStr">
+      <c r="AB323" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -31568,10 +30597,7 @@
         </is>
       </c>
       <c r="AA324" t="inlineStr"/>
-      <c r="AB324" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC324" t="inlineStr">
+      <c r="AB324" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -31663,10 +30689,7 @@
         </is>
       </c>
       <c r="AA325" t="inlineStr"/>
-      <c r="AB325" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC325" t="inlineStr">
+      <c r="AB325" t="inlineStr">
         <is>
           <t>['a street sign with a street name on it ']</t>
         </is>
@@ -31758,10 +30781,7 @@
         </is>
       </c>
       <c r="AA326" t="inlineStr"/>
-      <c r="AB326" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC326" t="inlineStr">
+      <c r="AB326" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -31853,10 +30873,7 @@
         </is>
       </c>
       <c r="AA327" t="inlineStr"/>
-      <c r="AB327" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC327" t="inlineStr">
+      <c r="AB327" t="inlineStr">
         <is>
           <t>['a beach scene with a beach ball and a beach chair ']</t>
         </is>
@@ -31944,10 +30961,7 @@
       </c>
       <c r="Z328" t="inlineStr"/>
       <c r="AA328" t="inlineStr"/>
-      <c r="AB328" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC328" t="inlineStr">
+      <c r="AB328" t="inlineStr">
         <is>
           <t>['a person holding a pair of hands on a wall ', 'a person is holding a pair of hands ']</t>
         </is>
@@ -32039,10 +31053,7 @@
         </is>
       </c>
       <c r="AA329" t="inlineStr"/>
-      <c r="AB329" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC329" t="inlineStr">
+      <c r="AB329" t="inlineStr">
         <is>
           <t>['a man sitting on a bench with a bird on his head ', 'a man sitting on a bench with a hat on ', 'a person sitting on a bench ', 'a person sitting on a bench with a cat ', 'a person sitting on a bench with a hat on ']</t>
         </is>
@@ -32134,10 +31145,7 @@
         </is>
       </c>
       <c r="AA330" t="inlineStr"/>
-      <c r="AB330" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC330" t="inlineStr">
+      <c r="AB330" t="inlineStr">
         <is>
           <t>['a bird perched on a railing near a body of water ', 'a white and black bird standing on top of a building ']</t>
         </is>
@@ -32229,10 +31237,7 @@
         </is>
       </c>
       <c r="AA331" t="inlineStr"/>
-      <c r="AB331" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC331" t="inlineStr">
+      <c r="AB331" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -32324,10 +31329,7 @@
         </is>
       </c>
       <c r="AA332" t="inlineStr"/>
-      <c r="AB332" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC332" t="inlineStr">
+      <c r="AB332" t="inlineStr">
         <is>
           <t>['a table with a bowl of food on it ', 'a cup of coffee on a plate with a knife ', 'a spoon and a cup on a table ', 'a table with a bowl of food on it ']</t>
         </is>
@@ -32419,10 +31421,7 @@
         </is>
       </c>
       <c r="AA333" t="inlineStr"/>
-      <c r="AB333" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC333" t="inlineStr">
+      <c r="AB333" t="inlineStr">
         <is>
           <t>['a motorcycle parked in front of a brick building ', 'a motorcycle parked in front of a brick building ']</t>
         </is>
@@ -32510,10 +31509,7 @@
       </c>
       <c r="Z334" t="inlineStr"/>
       <c r="AA334" t="inlineStr"/>
-      <c r="AB334" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC334" t="inlineStr">
+      <c r="AB334" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -32605,10 +31601,7 @@
         </is>
       </c>
       <c r="AA335" t="inlineStr"/>
-      <c r="AB335" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC335" t="inlineStr">
+      <c r="AB335" t="inlineStr">
         <is>
           <t>['a bed with a red blanket and pillows ', 'a bed with a blanket and pillows ', 'a bed with a blanket and pillows on it ']</t>
         </is>
@@ -32700,10 +31693,7 @@
         </is>
       </c>
       <c r="AA336" t="inlineStr"/>
-      <c r="AB336" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC336" t="inlineStr">
+      <c r="AB336" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -32795,10 +31785,7 @@
         </is>
       </c>
       <c r="AA337" t="inlineStr"/>
-      <c r="AB337" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC337" t="inlineStr">
+      <c r="AB337" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -32890,10 +31877,7 @@
         </is>
       </c>
       <c r="AA338" t="inlineStr"/>
-      <c r="AB338" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC338" t="inlineStr">
+      <c r="AB338" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -32985,10 +31969,7 @@
         </is>
       </c>
       <c r="AA339" t="inlineStr"/>
-      <c r="AB339" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC339" t="inlineStr">
+      <c r="AB339" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -33080,10 +32061,7 @@
         </is>
       </c>
       <c r="AA340" t="inlineStr"/>
-      <c r="AB340" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC340" t="inlineStr">
+      <c r="AB340" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -33175,10 +32153,7 @@
         </is>
       </c>
       <c r="AA341" t="inlineStr"/>
-      <c r="AB341" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC341" t="inlineStr">
+      <c r="AB341" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -33270,10 +32245,7 @@
         </is>
       </c>
       <c r="AA342" t="inlineStr"/>
-      <c r="AB342" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC342" t="inlineStr">
+      <c r="AB342" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -33365,10 +32337,7 @@
         </is>
       </c>
       <c r="AA343" t="inlineStr"/>
-      <c r="AB343" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC343" t="inlineStr">
+      <c r="AB343" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -33456,10 +32425,7 @@
       </c>
       <c r="Z344" t="inlineStr"/>
       <c r="AA344" t="inlineStr"/>
-      <c r="AB344" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC344" t="inlineStr">
+      <c r="AB344" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -33551,10 +32517,7 @@
         </is>
       </c>
       <c r="AA345" t="inlineStr"/>
-      <c r="AB345" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC345" t="inlineStr">
+      <c r="AB345" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -33646,10 +32609,7 @@
         </is>
       </c>
       <c r="AA346" t="inlineStr"/>
-      <c r="AB346" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC346" t="inlineStr">
+      <c r="AB346" t="inlineStr">
         <is>
           <t>['a garden with flowers and a vase of flowers ', 'a black and white vase with a bunch of rocks ', 'a flower arrangement in a garden ', 'a flower arrangement in a vase on a table ', 'a pot of flowers sitting on a rock ', 'a pot of flowers sitting on a stone wall ', 'a pot with a plant in it sitting on a rock ']</t>
         </is>
@@ -33741,10 +32701,7 @@
         </is>
       </c>
       <c r="AA347" t="inlineStr"/>
-      <c r="AB347" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC347" t="inlineStr">
+      <c r="AB347" t="inlineStr">
         <is>
           <t>['a dog walking down a path in the grass ', 'a dog standing on a grassy area next to a tree ']</t>
         </is>
@@ -33836,10 +32793,7 @@
         </is>
       </c>
       <c r="AA348" t="inlineStr"/>
-      <c r="AB348" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC348" t="inlineStr">
+      <c r="AB348" t="inlineStr">
         <is>
           <t>['a clock with a picture of a man on it ']</t>
         </is>
@@ -33927,10 +32881,7 @@
       </c>
       <c r="Z349" t="inlineStr"/>
       <c r="AA349" t="inlineStr"/>
-      <c r="AB349" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC349" t="inlineStr">
+      <c r="AB349" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
@@ -34022,10 +32973,7 @@
         </is>
       </c>
       <c r="AA350" t="inlineStr"/>
-      <c r="AB350" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC350" t="inlineStr">
+      <c r="AB350" t="inlineStr">
         <is>
           <t>['a man sitting at a table with a drink ', 'a glass of water with a fish in it ', 'a man holding a stuffed animal in his hand ', 'a man sitting at a table with a cup of coffee ', 'a man sitting at a table with a glass of wine ', 'a man sitting at a table with a hat on ', 'a man sitting in a chair with a bag ', 'a man sitting in a chair with a cell phone ', 'a man sitting in a chair with a large white object ', 'a man sitting in a chair with a stuffed animal ', 'a man sitting on a chair with a cane ', 'a man wearing a black shirt and a black tie ', 'a person holding a stick and a ball ', 'a person sitting at a table with a glass of wine ', 'a person sitting on a bench with a book ', 'a person standing in a wooden boat ', 'a reflection of a person standing in a mirror ', 'a table with a chair and a drink ', 'a table with a glass of wine and a person holding a glass ', 'a table with a glass of wine and a person sitting at a table ', 'a table with a glass of wine and a plate of food ', 'a table with a table cloth and a glass ', 'a table with a wooden table top and a wooden table top ', 'a woman in a bathrobe is in a bathtub ', 'a wooden table with a wooden chair and a wooden table cloth ', 'a wooden table with a wooden stick in it ']</t>
         </is>
@@ -34117,10 +33065,7 @@
         </is>
       </c>
       <c r="AA351" t="inlineStr"/>
-      <c r="AB351" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC351" t="inlineStr">
+      <c r="AB351" t="inlineStr">
         <is>
           <t>['a boat is docked on a dock near a body of water ', 'a blue umbrella sitting on top of a white bed ', 'a boat is docked at a dock with other boats ', 'a boat is docked in a harbor ', 'a boat is tied up on a dock ', 'a boat is tied up to a dock ', 'a green and white train on a track ', 'a person holding an umbrella on a street ', 'a person standing in the rain with an umbrella ', 'boats are docked in a row ']</t>
         </is>
@@ -34208,10 +33153,7 @@
       </c>
       <c r="Z352" t="inlineStr"/>
       <c r="AA352" t="inlineStr"/>
-      <c r="AB352" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC352" t="inlineStr">
+      <c r="AB352" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
